--- a/DriversOrders.xlsx
+++ b/DriversOrders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="559">
   <si>
     <t>Kennedy Njuguna Wanjiku</t>
   </si>
@@ -31,484 +31,517 @@
     <t>Dennis Ochieng Orwa</t>
   </si>
   <si>
+    <t>George Wanjohi Karanja</t>
+  </si>
+  <si>
+    <t>Alex Mwai Baru</t>
+  </si>
+  <si>
     <t>Samson Orwa Okumu</t>
   </si>
   <si>
+    <t>Silvester Mutua Muinde</t>
+  </si>
+  <si>
     <t>James Mwenje Gatheca</t>
   </si>
   <si>
-    <t>Alex Mwai Baru</t>
-  </si>
-  <si>
-    <t>Silvester Mutua Muinde</t>
-  </si>
-  <si>
     <t>Peter Nduati Wambui</t>
   </si>
   <si>
+    <t>Kelvin Lewis Kagumo Mwangi</t>
+  </si>
+  <si>
     <t>Robert Mwangi Mburu</t>
   </si>
   <si>
+    <t>Daniel Nyoike Macharia</t>
+  </si>
+  <si>
     <t>Silita Dickson Kesoi</t>
   </si>
   <si>
-    <t>Kelvin Lewis Kagumo Mwangi</t>
+    <t>Daniel Muchira Mugo</t>
+  </si>
+  <si>
+    <t>Alfred Mutuma Kiambi</t>
+  </si>
+  <si>
+    <t>Marclus Wafula Sahani</t>
+  </si>
+  <si>
+    <t>Villas Kipkemei Too</t>
+  </si>
+  <si>
+    <t>Zachaeus Mwanziu Musau</t>
+  </si>
+  <si>
+    <t>Dennis Ondieki Onchiri</t>
+  </si>
+  <si>
+    <t>Samuel Limo Kiptoo</t>
+  </si>
+  <si>
+    <t>Dennis Mulongo Khaoya</t>
+  </si>
+  <si>
+    <t>Kennedy Kinyanjui Gathua</t>
+  </si>
+  <si>
+    <t>Anthony Ndungu Gitau</t>
+  </si>
+  <si>
+    <t>Douglas Ontori Okibo</t>
+  </si>
+  <si>
+    <t>Stephen Nganga Njoroge</t>
+  </si>
+  <si>
+    <t>John Mungai Mwaura</t>
+  </si>
+  <si>
+    <t>Paul Mburu Njoroge</t>
+  </si>
+  <si>
+    <t>Peter Gichomo Kamau</t>
+  </si>
+  <si>
+    <t>Dennis Mutuiri Mugo</t>
+  </si>
+  <si>
+    <t>John Ndambuki</t>
+  </si>
+  <si>
+    <t>Paul Mbugua Njuguna</t>
+  </si>
+  <si>
+    <t>Stephen Muli Kimani</t>
+  </si>
+  <si>
+    <t>Willy Mutinda Richard</t>
+  </si>
+  <si>
+    <t>Julius Ngunjiri Maina</t>
+  </si>
+  <si>
+    <t>Brian Munyui Njoki</t>
+  </si>
+  <si>
+    <t>David Muiruri Thiongo</t>
+  </si>
+  <si>
+    <t>Joseph Ngarari Nganga</t>
+  </si>
+  <si>
+    <t>Simon Njuguna Mwangi</t>
+  </si>
+  <si>
+    <t>Paul Njogu</t>
+  </si>
+  <si>
+    <t>Stephen Mirungi Thuo</t>
+  </si>
+  <si>
+    <t>Mutugi Lewis Mugambi</t>
+  </si>
+  <si>
+    <t>Gibson Kipkoech Sang</t>
+  </si>
+  <si>
+    <t>Charles Maina Mwangi</t>
+  </si>
+  <si>
+    <t>Francis Kihiu Kamau</t>
+  </si>
+  <si>
+    <t>Kelvin Andati Chimoyi</t>
+  </si>
+  <si>
+    <t>Benad Mukosi Nzioki</t>
+  </si>
+  <si>
+    <t>Joseph Kanyingi Muigai</t>
+  </si>
+  <si>
+    <t>Joseph Mwinzi Kimwele</t>
+  </si>
+  <si>
+    <t>James Mwai Kamwetu</t>
+  </si>
+  <si>
+    <t>Elius Ngugi Mwangi</t>
+  </si>
+  <si>
+    <t>Christopher Kigwe Gatheka</t>
+  </si>
+  <si>
+    <t>Jackson Karani Ambwaya</t>
+  </si>
+  <si>
+    <t>Samwel Macharia Wanjira</t>
+  </si>
+  <si>
+    <t>Oliver Kahi Agufa</t>
+  </si>
+  <si>
+    <t>Boulter Omuloli Ocholi</t>
+  </si>
+  <si>
+    <t>John Kimani Njuguna</t>
+  </si>
+  <si>
+    <t>Christopher Muriithi Kamau</t>
+  </si>
+  <si>
+    <t>James Muithya Mutua</t>
+  </si>
+  <si>
+    <t>George Muraga Wango</t>
+  </si>
+  <si>
+    <t>Daniel Thuo Nyoike</t>
+  </si>
+  <si>
+    <t>Festus Omondi Agollah</t>
+  </si>
+  <si>
+    <t>Edwin Wachira Mwangi</t>
+  </si>
+  <si>
+    <t>George Njode Muthoni</t>
+  </si>
+  <si>
+    <t>Samuel Kangethe Waguchu</t>
+  </si>
+  <si>
+    <t>Jacob Ingosani Maluha</t>
+  </si>
+  <si>
+    <t>Philip Kuria Mburu</t>
+  </si>
+  <si>
+    <t>Glodias Kiplagat Bungei</t>
+  </si>
+  <si>
+    <t>Shadrack Muema Mwangangi</t>
+  </si>
+  <si>
+    <t>Daglas Oduli Kilande</t>
+  </si>
+  <si>
+    <t>Simon Njuguna Francis</t>
+  </si>
+  <si>
+    <t>Meshack Oguye Mahanga</t>
+  </si>
+  <si>
+    <t>John Karanja Mbuthia</t>
   </si>
   <si>
     <t>James Murimi Nyaga</t>
   </si>
   <si>
-    <t>Daniel Muchira Mugo</t>
-  </si>
-  <si>
-    <t>Daniel Nyoike Macharia</t>
-  </si>
-  <si>
-    <t>Alfred Mutuma Kiambi</t>
-  </si>
-  <si>
-    <t>Samuel Limo Kiptoo</t>
-  </si>
-  <si>
-    <t>Marclus Wafula Sahani</t>
-  </si>
-  <si>
-    <t>Villas Kipkemei Too</t>
-  </si>
-  <si>
-    <t>Dennis Ondieki Onchiri</t>
-  </si>
-  <si>
-    <t>Zachaeus Mwanziu Musau</t>
-  </si>
-  <si>
-    <t>Dennis Mulongo Khaoya</t>
-  </si>
-  <si>
-    <t>Anthony Ndungu Gitau</t>
-  </si>
-  <si>
-    <t>Peter Gichomo Kamau</t>
-  </si>
-  <si>
-    <t>George Wanjohi Karanja</t>
-  </si>
-  <si>
-    <t>Stephen Nganga Njoroge</t>
-  </si>
-  <si>
-    <t>John Mungai Mwaura</t>
-  </si>
-  <si>
-    <t>Paul Mburu Njoroge</t>
-  </si>
-  <si>
-    <t>Dennis Mutuiri Mugo</t>
-  </si>
-  <si>
-    <t>John Ndambuki</t>
-  </si>
-  <si>
-    <t>Kennedy Kinyanjui Gathua</t>
-  </si>
-  <si>
-    <t>Brian Munyui Njoki</t>
-  </si>
-  <si>
-    <t>Stephen Muli Kimani</t>
-  </si>
-  <si>
-    <t>Willy Mutinda Richard</t>
-  </si>
-  <si>
-    <t>Douglas Ontori Okibo</t>
-  </si>
-  <si>
-    <t>Julius Ngunjiri Maina</t>
-  </si>
-  <si>
-    <t>David Muiruri Thiongo</t>
-  </si>
-  <si>
-    <t>Paul Mbugua Njuguna</t>
-  </si>
-  <si>
-    <t>Simon Njuguna Mwangi</t>
-  </si>
-  <si>
-    <t>Paul Njogu</t>
-  </si>
-  <si>
-    <t>Joseph Ngarari Nganga</t>
-  </si>
-  <si>
-    <t>Philip Kuria Mburu</t>
-  </si>
-  <si>
-    <t>Kelvin Andati Chimoyi</t>
-  </si>
-  <si>
-    <t>Charles Maina Mwangi</t>
-  </si>
-  <si>
-    <t>Francis Kihiu Kamau</t>
-  </si>
-  <si>
-    <t>Gibson Kipkoech Sang</t>
-  </si>
-  <si>
-    <t>Simon Njuguna Francis</t>
-  </si>
-  <si>
-    <t>Joseph Kanyingi Muigai</t>
-  </si>
-  <si>
-    <t>Benad Mukosi Nzioki</t>
-  </si>
-  <si>
-    <t>Joseph Mwinzi Kimwele</t>
-  </si>
-  <si>
-    <t>Stephen Mirungi Thuo</t>
+    <t>Daniel Ekeno Lobekan</t>
+  </si>
+  <si>
+    <t>Samuel Muli Mutinda</t>
+  </si>
+  <si>
+    <t>Robert Wanjala Nyongesa</t>
+  </si>
+  <si>
+    <t>Samwel Njoroge</t>
+  </si>
+  <si>
+    <t>Joseph Ndungu Wanyoike</t>
+  </si>
+  <si>
+    <t>Kenneth Githaiga Gichuhi</t>
+  </si>
+  <si>
+    <t>John Ekeno Romo</t>
+  </si>
+  <si>
+    <t>Joel Ochieng Gundo</t>
+  </si>
+  <si>
+    <t>Kevin Kilonzo Ndila</t>
+  </si>
+  <si>
+    <t>Samuel Maina Muchoki</t>
+  </si>
+  <si>
+    <t>Amos Liluma</t>
+  </si>
+  <si>
+    <t>Timothy Murimi</t>
+  </si>
+  <si>
+    <t>Henry Lluhombo Barasa</t>
+  </si>
+  <si>
+    <t>Richard Simiyu Wanyama</t>
+  </si>
+  <si>
+    <t>Oscar Omcheni Mukoya Maloba</t>
+  </si>
+  <si>
+    <t>Abraham Otieno Odhiambo</t>
+  </si>
+  <si>
+    <t>Onchieku Oreri Isaiah</t>
+  </si>
+  <si>
+    <t>Peter Ndungu Muiruri</t>
+  </si>
+  <si>
+    <t>David Wafula Barasa</t>
+  </si>
+  <si>
+    <t>Joshua Imbaya Tsuma</t>
+  </si>
+  <si>
+    <t>Eric Mwiti Geoffrey</t>
+  </si>
+  <si>
+    <t>Reuben Otieno Ochola</t>
+  </si>
+  <si>
+    <t>Alexander Muia Kithoi</t>
+  </si>
+  <si>
+    <t>Andrew Masika Okiru</t>
+  </si>
+  <si>
+    <t>Erick Mokaya Bosire</t>
+  </si>
+  <si>
+    <t>Joseph Kimani Kamau</t>
+  </si>
+  <si>
+    <t>Justine Onchoke Nyakundi</t>
+  </si>
+  <si>
+    <t>Benson K Kahihu</t>
+  </si>
+  <si>
+    <t>John Muhia Mwangi</t>
+  </si>
+  <si>
+    <t>George Mburu Wanjiru</t>
+  </si>
+  <si>
+    <t>Francis Kahora Wambui</t>
+  </si>
+  <si>
+    <t>Timothy Kipchumba Kiplimo</t>
+  </si>
+  <si>
+    <t>Patrick Kipngetich Rutto</t>
+  </si>
+  <si>
+    <t>Peter Mundia Kamande</t>
+  </si>
+  <si>
+    <t>John Njuguna Karanja</t>
+  </si>
+  <si>
+    <t>Anthony Akasai</t>
+  </si>
+  <si>
+    <t>Francis Mbugua Babu</t>
+  </si>
+  <si>
+    <t>Davis Simiyu Simiyu</t>
+  </si>
+  <si>
+    <t>Geoffrey Mwangi Wainaiana</t>
+  </si>
+  <si>
+    <t>Kelvin Mbugua Wanjenga</t>
+  </si>
+  <si>
+    <t>David Nyoike</t>
+  </si>
+  <si>
+    <t>Francis Kamau Kahama</t>
+  </si>
+  <si>
+    <t>Douglas Nguta Mututo</t>
+  </si>
+  <si>
+    <t>Daniel Njuguna Gachuki</t>
   </si>
   <si>
     <t>Robert Mwangi Thairu</t>
   </si>
   <si>
-    <t>Elius Ngugi Mwangi</t>
-  </si>
-  <si>
-    <t>Christopher Kigwe Gatheka</t>
-  </si>
-  <si>
-    <t>Festus Omondi Agollah</t>
-  </si>
-  <si>
-    <t>John Kimani Njuguna</t>
-  </si>
-  <si>
-    <t>James Mwai Kamwetu</t>
-  </si>
-  <si>
-    <t>Oliver Kahi Agufa</t>
-  </si>
-  <si>
-    <t>Mutugi Lewis Mugambi</t>
-  </si>
-  <si>
-    <t>George Njode Muthoni</t>
-  </si>
-  <si>
-    <t>Boulter Omuloli Ocholi</t>
-  </si>
-  <si>
-    <t>Jacob Ingosani Maluha</t>
-  </si>
-  <si>
-    <t>Amos Liluma</t>
-  </si>
-  <si>
-    <t>Samwel Macharia Wanjira</t>
-  </si>
-  <si>
-    <t>James Muithya Mutua</t>
-  </si>
-  <si>
-    <t>George Muraga Wango</t>
-  </si>
-  <si>
-    <t>Daniel Thuo Nyoike</t>
-  </si>
-  <si>
-    <t>Kenneth Githaiga Gichuhi</t>
-  </si>
-  <si>
-    <t>Christopher Muriithi Kamau</t>
-  </si>
-  <si>
-    <t>Edwin Wachira Mwangi</t>
-  </si>
-  <si>
-    <t>Onchieku Oreri Isaiah</t>
-  </si>
-  <si>
-    <t>Shadrack Muema Mwangangi</t>
+    <t>Patrick Kimani Gichuru</t>
+  </si>
+  <si>
+    <t>Anthony Mwangi Mbau</t>
+  </si>
+  <si>
+    <t>Dennis Mutune</t>
+  </si>
+  <si>
+    <t>Jeffrey Okwaro Ludwa</t>
   </si>
   <si>
     <t>Moses Musembi</t>
   </si>
   <si>
-    <t>Meshack Oguye Mahanga</t>
-  </si>
-  <si>
-    <t>Kevin Kilonzo Ndila</t>
-  </si>
-  <si>
-    <t>John Karanja Mbuthia</t>
-  </si>
-  <si>
-    <t>Daniel Ekeno Lobekan</t>
-  </si>
-  <si>
-    <t>Samwel Njoroge</t>
-  </si>
-  <si>
-    <t>Joseph Ndungu Wanyoike</t>
-  </si>
-  <si>
-    <t>Peter Mundia Kamande</t>
-  </si>
-  <si>
-    <t>John Ekeno Romo</t>
-  </si>
-  <si>
-    <t>Samuel Maina Muchoki</t>
-  </si>
-  <si>
-    <t>Glodias Kiplagat Bungei</t>
-  </si>
-  <si>
-    <t>Timothy Murimi</t>
-  </si>
-  <si>
-    <t>Andrew Masika Okiru</t>
-  </si>
-  <si>
-    <t>Joseph Kimani Kamau</t>
-  </si>
-  <si>
-    <t>Richard Simiyu Wanyama</t>
-  </si>
-  <si>
-    <t>Jeffrey Okwaro Ludwa</t>
-  </si>
-  <si>
-    <t>Eric Mwiti Geoffrey</t>
-  </si>
-  <si>
-    <t>Reuben Otieno Ochola</t>
-  </si>
-  <si>
-    <t>Alexander Muia Kithoi</t>
+    <t>Samuel Mwangi Njigua</t>
+  </si>
+  <si>
+    <t>Geoffrey Gitonga Ndiba</t>
+  </si>
+  <si>
+    <t>Florence Naliaka Wanyonyi</t>
+  </si>
+  <si>
+    <t>Boniface Waweru Nyamu</t>
+  </si>
+  <si>
+    <t>Boniface Mwaura Njoroge</t>
+  </si>
+  <si>
+    <t>Thomas Orina Orechi</t>
+  </si>
+  <si>
+    <t>Paul Mungai Mwaura</t>
+  </si>
+  <si>
+    <t>Eliud Karanja Maina</t>
+  </si>
+  <si>
+    <t>Hillary Amwoka Mufoyongo</t>
+  </si>
+  <si>
+    <t>Peter Mukundi Mwaniki</t>
+  </si>
+  <si>
+    <t>Vincent Shilabula Imbwaga</t>
+  </si>
+  <si>
+    <t>Killion Airo Alooh</t>
+  </si>
+  <si>
+    <t>Jackson Kamande</t>
+  </si>
+  <si>
+    <t>Cheboi Kipkoech Gilbert</t>
+  </si>
+  <si>
+    <t>David Maluki Mukiti</t>
+  </si>
+  <si>
+    <t>Francis Wamai Nyoike</t>
+  </si>
+  <si>
+    <t>Paul Kyalo</t>
+  </si>
+  <si>
+    <t>Leonard Bernard Murigi</t>
+  </si>
+  <si>
+    <t>Samson Gaitho Chege</t>
+  </si>
+  <si>
+    <t>Patrick Ikuu Irungu</t>
+  </si>
+  <si>
+    <t>Joseph Kimani Mburu</t>
+  </si>
+  <si>
+    <t>Joseph Kiragu Kongo</t>
+  </si>
+  <si>
+    <t>Peter Muimi Mwinzi</t>
+  </si>
+  <si>
+    <t>Peter Mwangi</t>
+  </si>
+  <si>
+    <t>Mathew Alambo</t>
   </si>
   <si>
     <t>Dennis G Gitau</t>
   </si>
   <si>
-    <t>Henry Lluhombo Barasa</t>
-  </si>
-  <si>
-    <t>George Mburu Wanjiru</t>
-  </si>
-  <si>
-    <t>Francis Kahora Wambui</t>
-  </si>
-  <si>
-    <t>Geoffrey Mwangi Wainaiana</t>
-  </si>
-  <si>
-    <t>Timothy Kipchumba Kiplimo</t>
-  </si>
-  <si>
-    <t>Francis Mbugua Babu</t>
-  </si>
-  <si>
-    <t>Jackson Kamande</t>
-  </si>
-  <si>
-    <t>John Njuguna Karanja</t>
-  </si>
-  <si>
-    <t>Samuel Muli Mutinda</t>
-  </si>
-  <si>
-    <t>Jackson Karani Ambwaya</t>
+    <t>Patrick Kiplimo Mulusa</t>
+  </si>
+  <si>
+    <t>Peter Mburu Nyoike</t>
+  </si>
+  <si>
+    <t>Gregory Mutwiri Mugambi</t>
+  </si>
+  <si>
+    <t>Oreri Nicholas Nyamboga</t>
+  </si>
+  <si>
+    <t>Paul Waweru Mundia</t>
+  </si>
+  <si>
+    <t>Dennis Mulili Kamuya</t>
+  </si>
+  <si>
+    <t>Eric Mungai Wambui</t>
+  </si>
+  <si>
+    <t>David Mwangi Njoroge</t>
+  </si>
+  <si>
+    <t>Stanely Kamau Macharia</t>
+  </si>
+  <si>
+    <t>Francis Ochieng</t>
+  </si>
+  <si>
+    <t>Samuel Asiago Onyoni</t>
+  </si>
+  <si>
+    <t>Dennis Maritim</t>
+  </si>
+  <si>
+    <t>Ronald Ooru Oduor</t>
+  </si>
+  <si>
+    <t>Benard Muasya Kioko</t>
+  </si>
+  <si>
+    <t>Samwel Sankale Taruru</t>
+  </si>
+  <si>
+    <t>Edwin Munene</t>
+  </si>
+  <si>
+    <t>Erick Kitonga Mukiti</t>
+  </si>
+  <si>
+    <t>Wilson Maina Waweru</t>
+  </si>
+  <si>
+    <t>John Mburu Kamande</t>
   </si>
   <si>
     <t>Amos Njuguna Wanjau</t>
   </si>
   <si>
-    <t>Thomas Orina Orechi</t>
-  </si>
-  <si>
-    <t>David Nyoike</t>
-  </si>
-  <si>
-    <t>Benson K Kahihu</t>
-  </si>
-  <si>
-    <t>David Wafula Barasa</t>
-  </si>
-  <si>
-    <t>Dennis Mutune</t>
-  </si>
-  <si>
-    <t>Daniel Njuguna Gachuki</t>
-  </si>
-  <si>
-    <t>Peter Ndungu Muiruri</t>
-  </si>
-  <si>
-    <t>Anthony Mwangi Mbau</t>
-  </si>
-  <si>
-    <t>Abraham Otieno Odhiambo</t>
-  </si>
-  <si>
-    <t>Francis Kamau Kahama</t>
-  </si>
-  <si>
-    <t>Erick Mokaya Bosire</t>
-  </si>
-  <si>
-    <t>Daglas Oduli Kilande</t>
-  </si>
-  <si>
-    <t>Douglas Nguta Mututo</t>
-  </si>
-  <si>
-    <t>Joseph Kimani Mburu</t>
-  </si>
-  <si>
-    <t>Paul Waweru Mundia</t>
-  </si>
-  <si>
-    <t>Justine Onchoke Nyakundi</t>
-  </si>
-  <si>
-    <t>Moses Kipkoech Summ</t>
-  </si>
-  <si>
-    <t>Oscar Omcheni Mukoya Maloba</t>
-  </si>
-  <si>
-    <t>Peter Mwangi</t>
-  </si>
-  <si>
-    <t>Paul Kyalo</t>
-  </si>
-  <si>
-    <t>Florence Naliaka Wanyonyi</t>
-  </si>
-  <si>
-    <t>Geoffrey Gitonga Ndiba</t>
-  </si>
-  <si>
-    <t>Boniface Waweru Nyamu</t>
-  </si>
-  <si>
-    <t>Samuel Mwangi Njigua</t>
-  </si>
-  <si>
-    <t>Paul Mungai Mwaura</t>
-  </si>
-  <si>
-    <t>Eliud Karanja Maina</t>
-  </si>
-  <si>
-    <t>Patrick Kipngetich Rutto</t>
-  </si>
-  <si>
-    <t>Peter Mukundi Mwaniki</t>
-  </si>
-  <si>
-    <t>Joel Ochieng Gundo</t>
-  </si>
-  <si>
-    <t>Robert Wanjala Nyongesa</t>
-  </si>
-  <si>
-    <t>Killion Airo Alooh</t>
-  </si>
-  <si>
-    <t>Vincent Shilabula Imbwaga</t>
-  </si>
-  <si>
-    <t>Francis Wamai Nyoike</t>
-  </si>
-  <si>
-    <t>David Maluki Mukiti</t>
-  </si>
-  <si>
-    <t>Leonard Bernard Murigi</t>
-  </si>
-  <si>
-    <t>Mathew Alambo</t>
-  </si>
-  <si>
-    <t>Patrick Kimani Gichuru</t>
-  </si>
-  <si>
-    <t>Patrick Kiplimo Mulusa</t>
-  </si>
-  <si>
-    <t>Samuel Kangethe Waguchu</t>
-  </si>
-  <si>
-    <t>Samson Gaitho Chege</t>
-  </si>
-  <si>
-    <t>Patrick Ikuu Irungu</t>
-  </si>
-  <si>
-    <t>Joseph Kiragu Kongo</t>
-  </si>
-  <si>
-    <t>David Mwangi Njoroge</t>
-  </si>
-  <si>
-    <t>Stanely Kamau Macharia</t>
-  </si>
-  <si>
-    <t>Francis Ochieng</t>
-  </si>
-  <si>
-    <t>Dennis Mulili Kamuya</t>
-  </si>
-  <si>
-    <t>Eric Mungai Wambui</t>
-  </si>
-  <si>
-    <t>Erick Kitonga Mukiti</t>
-  </si>
-  <si>
-    <t>Samuel Asiago Onyoni</t>
-  </si>
-  <si>
-    <t>Dennis Maritim</t>
-  </si>
-  <si>
-    <t>Ronald Ooru Oduor</t>
-  </si>
-  <si>
-    <t>Joshua Imbaya Tsuma</t>
-  </si>
-  <si>
-    <t>Peter Mburu Nyoike</t>
-  </si>
-  <si>
-    <t>Gregory Mutwiri Mugambi</t>
-  </si>
-  <si>
-    <t>Oreri Nicholas Nyamboga</t>
-  </si>
-  <si>
-    <t>Peter Muimi Mwinzi</t>
-  </si>
-  <si>
-    <t>Benard Muasya Kioko</t>
-  </si>
-  <si>
-    <t>John Gitau Muturi</t>
-  </si>
-  <si>
-    <t>Samwel Sankale Taruru</t>
-  </si>
-  <si>
-    <t>Wilson Maina Waweru</t>
-  </si>
-  <si>
-    <t>Edwin Munene</t>
+    <t>Maxwell Kihara</t>
+  </si>
+  <si>
+    <t>Wilson Owire</t>
+  </si>
+  <si>
+    <t>Jacob Makale</t>
+  </si>
+  <si>
+    <t>Francis Njoroge Muceru</t>
+  </si>
+  <si>
+    <t>James Lesosian</t>
   </si>
   <si>
     <t>Kipngeno Dennis Langat</t>
@@ -517,39 +550,6 @@
     <t>Jesse Muchugia Wairimu</t>
   </si>
   <si>
-    <t>Davis Simiyu Simiyu</t>
-  </si>
-  <si>
-    <t>Maxwell Kihara</t>
-  </si>
-  <si>
-    <t>Wilson Owire</t>
-  </si>
-  <si>
-    <t>Boniface Mwaura Njoroge</t>
-  </si>
-  <si>
-    <t>Kelvin Mbugua Wanjenga</t>
-  </si>
-  <si>
-    <t>John Mburu Kamande</t>
-  </si>
-  <si>
-    <t>Cheboi Kipkoech Gilbert</t>
-  </si>
-  <si>
-    <t>Jacob Makale</t>
-  </si>
-  <si>
-    <t>Hillary Amwoka Mufoyongo</t>
-  </si>
-  <si>
-    <t>Francis Njoroge Muceru</t>
-  </si>
-  <si>
-    <t>James Lesosian</t>
-  </si>
-  <si>
     <t>Isaac Wamaru</t>
   </si>
   <si>
@@ -568,442 +568,469 @@
     <t>KTWC 486D</t>
   </si>
   <si>
+    <t>KCS 073R</t>
+  </si>
+  <si>
+    <t>KCT 325T</t>
+  </si>
+  <si>
     <t>KCU 270L</t>
   </si>
   <si>
-    <t>KCS 073R</t>
-  </si>
-  <si>
-    <t>KCT 325T</t>
-  </si>
-  <si>
     <t>KCS 017U</t>
   </si>
   <si>
+    <t>KCZ 064Y</t>
+  </si>
+  <si>
     <t>KTWC 502D</t>
   </si>
   <si>
+    <t>KCS 067T</t>
+  </si>
+  <si>
     <t>KCZ 136P</t>
   </si>
   <si>
-    <t>KCZ 064Y</t>
+    <t>KCY 134U</t>
+  </si>
+  <si>
+    <t>KCR 952Z</t>
+  </si>
+  <si>
+    <t>KDA 046E</t>
+  </si>
+  <si>
+    <t>KTWB 017U</t>
+  </si>
+  <si>
+    <t>KCU 247L</t>
+  </si>
+  <si>
+    <t>KCZ 144P</t>
+  </si>
+  <si>
+    <t>KCP 215A</t>
+  </si>
+  <si>
+    <t>KTWC 511D</t>
+  </si>
+  <si>
+    <t>KTWB 602Q</t>
+  </si>
+  <si>
+    <t>KDA 031E</t>
+  </si>
+  <si>
+    <t>KCS 083R</t>
+  </si>
+  <si>
+    <t>KCZ 062Y</t>
+  </si>
+  <si>
+    <t>KTWC 445D</t>
+  </si>
+  <si>
+    <t>KDA 042E</t>
+  </si>
+  <si>
+    <t>KTWB 886U</t>
+  </si>
+  <si>
+    <t>KTWC 482D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KCW 195Z </t>
+  </si>
+  <si>
+    <t>KCZ 061Y</t>
+  </si>
+  <si>
+    <t>KTWB 027U</t>
+  </si>
+  <si>
+    <t>KCZ 157P</t>
+  </si>
+  <si>
+    <t>KTWC 686L</t>
+  </si>
+  <si>
+    <t>KTWB 814U</t>
+  </si>
+  <si>
+    <t>KTWB 021U</t>
+  </si>
+  <si>
+    <t>KCR 027P</t>
+  </si>
+  <si>
+    <t>KCY 173U</t>
+  </si>
+  <si>
+    <t>KTWC 492D</t>
+  </si>
+  <si>
+    <t>KDA 039E</t>
+  </si>
+  <si>
+    <t>KTWC 455D</t>
+  </si>
+  <si>
+    <t>KCZ 137P</t>
+  </si>
+  <si>
+    <t>KTWC 901C</t>
+  </si>
+  <si>
+    <t>KTWB 007U</t>
+  </si>
+  <si>
+    <t>KCU 817S</t>
+  </si>
+  <si>
+    <t>KTWC 595C</t>
+  </si>
+  <si>
+    <t>KTWB 809U</t>
+  </si>
+  <si>
+    <t>KCY 107Y</t>
+  </si>
+  <si>
+    <t>KCP 213A</t>
+  </si>
+  <si>
+    <t>KCU 267L</t>
+  </si>
+  <si>
+    <t>KDA 037E</t>
+  </si>
+  <si>
+    <t>KCS 070T</t>
+  </si>
+  <si>
+    <t>KTWC 433D</t>
+  </si>
+  <si>
+    <t>KTWB 830U</t>
+  </si>
+  <si>
+    <t>KTWB 609Q</t>
+  </si>
+  <si>
+    <t>KDA 035E</t>
+  </si>
+  <si>
+    <t>KCR 091X</t>
+  </si>
+  <si>
+    <t>KCY 160U</t>
+  </si>
+  <si>
+    <t>KTWB 605Q</t>
+  </si>
+  <si>
+    <t>KCU 273L</t>
+  </si>
+  <si>
+    <t>KTWB 587Q</t>
+  </si>
+  <si>
+    <t>KTWB 012U</t>
+  </si>
+  <si>
+    <t>KTWC 456D</t>
+  </si>
+  <si>
+    <t>KCT 127T</t>
+  </si>
+  <si>
+    <t>KDA 028E</t>
+  </si>
+  <si>
+    <t>KTWB 808U</t>
+  </si>
+  <si>
+    <t>KCS 088R</t>
+  </si>
+  <si>
+    <t>KTWB 258V</t>
+  </si>
+  <si>
+    <t>KCS 021A</t>
+  </si>
+  <si>
+    <t>KCZ 140P</t>
+  </si>
+  <si>
+    <t>KTWB 820U</t>
   </si>
   <si>
     <t>KCS 019U</t>
   </si>
   <si>
-    <t>KCY 134U</t>
-  </si>
-  <si>
-    <t>KCS 067T</t>
-  </si>
-  <si>
-    <t>KCR 952Z</t>
-  </si>
-  <si>
-    <t>KCP 215A</t>
-  </si>
-  <si>
-    <t>KDA 046E</t>
-  </si>
-  <si>
-    <t>KTWB 017U</t>
-  </si>
-  <si>
-    <t>KCZ 144P</t>
-  </si>
-  <si>
-    <t>KCU 247L</t>
-  </si>
-  <si>
-    <t>KTWC 511D</t>
-  </si>
-  <si>
-    <t>KDA 031E</t>
-  </si>
-  <si>
-    <t>KTWB 886U</t>
-  </si>
-  <si>
-    <t>KCZ 062Y</t>
-  </si>
-  <si>
-    <t>KTWC 445D</t>
-  </si>
-  <si>
-    <t>KDA 042E</t>
-  </si>
-  <si>
-    <t>KTWC 482D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KCW 195Z </t>
-  </si>
-  <si>
-    <t>KTWB 602Q</t>
-  </si>
-  <si>
-    <t>KTWB 814U</t>
-  </si>
-  <si>
-    <t>KTWB 027U</t>
-  </si>
-  <si>
-    <t>KCZ 157P</t>
-  </si>
-  <si>
-    <t>KCS 083R</t>
-  </si>
-  <si>
-    <t>KTWC 686L</t>
-  </si>
-  <si>
-    <t>KTWB 021U</t>
-  </si>
-  <si>
-    <t>KCZ 061Y</t>
-  </si>
-  <si>
-    <t>KCY 173U</t>
-  </si>
-  <si>
-    <t>KTWC 492D</t>
-  </si>
-  <si>
-    <t>KCR 027P</t>
-  </si>
-  <si>
-    <t>KDA 028E</t>
-  </si>
-  <si>
-    <t>KCU 817S</t>
-  </si>
-  <si>
-    <t>KTWC 901C</t>
-  </si>
-  <si>
-    <t>KTWB 007U</t>
-  </si>
-  <si>
-    <t>KCZ 137P</t>
-  </si>
-  <si>
-    <t>KCS 021A</t>
-  </si>
-  <si>
-    <t>KTWB 809U</t>
-  </si>
-  <si>
-    <t>KTWC 595C</t>
-  </si>
-  <si>
-    <t>KCY 107Y</t>
-  </si>
-  <si>
-    <t>KDA 039E</t>
+    <t>KCY 163U</t>
+  </si>
+  <si>
+    <t>KTWB 595Q</t>
+  </si>
+  <si>
+    <t>KTWC 723L</t>
+  </si>
+  <si>
+    <t>KCY 168U</t>
+  </si>
+  <si>
+    <t>KCT 295T</t>
+  </si>
+  <si>
+    <t>KCP 212A</t>
+  </si>
+  <si>
+    <t>KCY 167U</t>
+  </si>
+  <si>
+    <t>KCT 296T</t>
+  </si>
+  <si>
+    <t>KTWB 833U</t>
+  </si>
+  <si>
+    <t>KTWC 499D</t>
+  </si>
+  <si>
+    <t>KTWB 248V</t>
+  </si>
+  <si>
+    <t>KTWC 506D</t>
+  </si>
+  <si>
+    <t>KTWC 132G</t>
+  </si>
+  <si>
+    <t>KCU 265L</t>
+  </si>
+  <si>
+    <t>KCT 327T</t>
+  </si>
+  <si>
+    <t>KTWB 608Q</t>
+  </si>
+  <si>
+    <t>KCU 271L</t>
+  </si>
+  <si>
+    <t>KTWC 722L</t>
+  </si>
+  <si>
+    <t>KTWC 566C</t>
+  </si>
+  <si>
+    <t>KCP 216A</t>
+  </si>
+  <si>
+    <t>KCS 072T</t>
+  </si>
+  <si>
+    <t>KTWC 692L</t>
+  </si>
+  <si>
+    <t>KTWC 736L</t>
+  </si>
+  <si>
+    <t>KCP 214A</t>
+  </si>
+  <si>
+    <t>KTWB 262V</t>
+  </si>
+  <si>
+    <t>KTWC 670L</t>
+  </si>
+  <si>
+    <t>KTWC 490D</t>
+  </si>
+  <si>
+    <t>KDA 034E</t>
+  </si>
+  <si>
+    <t>KCT 130T</t>
+  </si>
+  <si>
+    <t>KCT 128T</t>
+  </si>
+  <si>
+    <t>KCS 074R</t>
+  </si>
+  <si>
+    <t>KCT 294T</t>
+  </si>
+  <si>
+    <t>KTWB 818U</t>
+  </si>
+  <si>
+    <t>KCR 033P</t>
+  </si>
+  <si>
+    <t>KTWC 546C</t>
+  </si>
+  <si>
+    <t>KDA 033E</t>
+  </si>
+  <si>
+    <t>KCZ 059Y</t>
+  </si>
+  <si>
+    <t>KCR 032P</t>
+  </si>
+  <si>
+    <t>KCT 375W</t>
   </si>
   <si>
     <t>KTWC 740L</t>
   </si>
   <si>
-    <t>KCU 267L</t>
-  </si>
-  <si>
-    <t>KDA 037E</t>
-  </si>
-  <si>
-    <t>KCU 273L</t>
-  </si>
-  <si>
-    <t>KDA 035E</t>
-  </si>
-  <si>
-    <t>KCP 213A</t>
-  </si>
-  <si>
-    <t>KTWB 830U</t>
-  </si>
-  <si>
-    <t>KTWC 455D</t>
-  </si>
-  <si>
-    <t>KTWB 012U</t>
-  </si>
-  <si>
-    <t>KTWB 609Q</t>
-  </si>
-  <si>
-    <t>KCT 127T</t>
-  </si>
-  <si>
-    <t>KTWB 833U</t>
-  </si>
-  <si>
-    <t>KTWC 433D</t>
-  </si>
-  <si>
-    <t>KCY 160U</t>
-  </si>
-  <si>
-    <t>KTWB 605Q</t>
-  </si>
-  <si>
-    <t>KCT 295T</t>
-  </si>
-  <si>
-    <t>KCR 091X</t>
-  </si>
-  <si>
-    <t>KTWB 587Q</t>
-  </si>
-  <si>
-    <t>KCT 327T</t>
-  </si>
-  <si>
-    <t>KCS 088R</t>
+    <t>KCR 082X</t>
+  </si>
+  <si>
+    <t>KTWC 442D</t>
+  </si>
+  <si>
+    <t>KCR 028P</t>
+  </si>
+  <si>
+    <t>KCZ 063Y</t>
   </si>
   <si>
     <t>KTWC 749L</t>
   </si>
   <si>
-    <t>KCZ 140P</t>
-  </si>
-  <si>
-    <t>KCT 296T</t>
-  </si>
-  <si>
-    <t>KTWB 820U</t>
-  </si>
-  <si>
-    <t>KCY 163U</t>
-  </si>
-  <si>
-    <t>KCY 168U</t>
-  </si>
-  <si>
-    <t>KCS 074R</t>
-  </si>
-  <si>
-    <t>KCP 212A</t>
-  </si>
-  <si>
-    <t>KTWB 808U</t>
-  </si>
-  <si>
-    <t>KTWC 499D</t>
-  </si>
-  <si>
-    <t>KTWC 736L</t>
-  </si>
-  <si>
-    <t>KTWC 506D</t>
-  </si>
-  <si>
-    <t>KCZ 063Y</t>
-  </si>
-  <si>
-    <t>KTWC 566C</t>
-  </si>
-  <si>
-    <t>KCP 216A</t>
-  </si>
-  <si>
-    <t>KCS 072T</t>
+    <t>KTWB 232V</t>
+  </si>
+  <si>
+    <t>KTWB 822U</t>
+  </si>
+  <si>
+    <t>KTWC 489D</t>
+  </si>
+  <si>
+    <t>KTWB 882U</t>
+  </si>
+  <si>
+    <t>KTWC 495D</t>
+  </si>
+  <si>
+    <t>KTWB 020U</t>
+  </si>
+  <si>
+    <t>KTWB 824U</t>
+  </si>
+  <si>
+    <t>KTWC 476D</t>
+  </si>
+  <si>
+    <t>KTWC 483D</t>
+  </si>
+  <si>
+    <t>KTWC 730L</t>
+  </si>
+  <si>
+    <t>KCZ 087Y</t>
+  </si>
+  <si>
+    <t>KTWC 568C</t>
+  </si>
+  <si>
+    <t>KTWC 747L</t>
+  </si>
+  <si>
+    <t>KCU 264L</t>
+  </si>
+  <si>
+    <t>KCR 681Z</t>
+  </si>
+  <si>
+    <t>KTWB 859U</t>
+  </si>
+  <si>
+    <t>KCS 074T</t>
+  </si>
+  <si>
+    <t>KTWC 729L</t>
+  </si>
+  <si>
+    <t>KCS 076T</t>
+  </si>
+  <si>
+    <t>KTWB 806U</t>
+  </si>
+  <si>
+    <t>KTWB 239V</t>
+  </si>
+  <si>
+    <t>KCT 326T</t>
   </si>
   <si>
     <t>KTWC 500D</t>
   </si>
   <si>
-    <t>KTWB 248V</t>
-  </si>
-  <si>
-    <t>KTWC 490D</t>
-  </si>
-  <si>
-    <t>KDA 034E</t>
-  </si>
-  <si>
-    <t>KDA 033E</t>
-  </si>
-  <si>
-    <t>KCT 130T</t>
-  </si>
-  <si>
-    <t>KCR 033P</t>
-  </si>
-  <si>
-    <t>KTWC 747L</t>
-  </si>
-  <si>
-    <t>KCT 294T</t>
-  </si>
-  <si>
-    <t>KTWB 595Q</t>
-  </si>
-  <si>
-    <t>KCS 070T</t>
+    <t>KCT 376W</t>
+  </si>
+  <si>
+    <t>KCS 018U</t>
+  </si>
+  <si>
+    <t>KCR 682Z</t>
+  </si>
+  <si>
+    <t>KCS 084R</t>
+  </si>
+  <si>
+    <t>KCP 256A</t>
+  </si>
+  <si>
+    <t>KCP 211A</t>
+  </si>
+  <si>
+    <t>KCS 071T</t>
+  </si>
+  <si>
+    <t>KTWC 133G</t>
+  </si>
+  <si>
+    <t>KTWC 493D</t>
+  </si>
+  <si>
+    <t>KCT 364W</t>
+  </si>
+  <si>
+    <t>KTWB 254V</t>
+  </si>
+  <si>
+    <t>KTWB 247V</t>
+  </si>
+  <si>
+    <t>KTWC 514D</t>
+  </si>
+  <si>
+    <t>KCY 137U</t>
+  </si>
+  <si>
+    <t>KTWC 596C</t>
   </si>
   <si>
     <t>KCR 029P</t>
   </si>
   <si>
-    <t>KTWB 020U</t>
-  </si>
-  <si>
-    <t>KTWB 262V</t>
-  </si>
-  <si>
-    <t>KCU 271L</t>
-  </si>
-  <si>
-    <t>KCR 028P</t>
-  </si>
-  <si>
-    <t>KTWB 608Q</t>
-  </si>
-  <si>
-    <t>KTWC 442D</t>
-  </si>
-  <si>
-    <t>KCU 265L</t>
-  </si>
-  <si>
-    <t>KCR 032P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KTWC 478D </t>
-  </si>
-  <si>
-    <t>KTWB 258V</t>
-  </si>
-  <si>
-    <t>KCT 375W</t>
-  </si>
-  <si>
-    <t>KCS 076T</t>
-  </si>
-  <si>
-    <t>KCS 084R</t>
-  </si>
-  <si>
-    <t>KCP 214A</t>
-  </si>
-  <si>
-    <t>KCS 087R</t>
-  </si>
-  <si>
-    <t>KTWC 132G</t>
-  </si>
-  <si>
-    <t>KTWB 239V</t>
-  </si>
-  <si>
-    <t>KTWB 859U</t>
-  </si>
-  <si>
-    <t>KTWC 489D</t>
-  </si>
-  <si>
-    <t>KTWB 822U</t>
-  </si>
-  <si>
-    <t>KTWB 882U</t>
-  </si>
-  <si>
-    <t>KTWB 232V</t>
-  </si>
-  <si>
-    <t>KTWB 824U</t>
-  </si>
-  <si>
-    <t>KTWC 476D</t>
-  </si>
-  <si>
-    <t>KCT 128T</t>
-  </si>
-  <si>
-    <t>KTWC 730L</t>
-  </si>
-  <si>
-    <t>KCY 167U</t>
-  </si>
-  <si>
-    <t>KTWC 723L</t>
-  </si>
-  <si>
-    <t>KTWC 568C</t>
-  </si>
-  <si>
-    <t>KCZ 087Y</t>
-  </si>
-  <si>
-    <t>KCR 681Z</t>
-  </si>
-  <si>
-    <t>KDB 143H</t>
-  </si>
-  <si>
-    <t>KCT 326T</t>
-  </si>
-  <si>
-    <t>KCR 082X</t>
-  </si>
-  <si>
-    <t>KCT 376W</t>
-  </si>
-  <si>
-    <t>KTWC 456D</t>
-  </si>
-  <si>
-    <t>KCS 074T</t>
-  </si>
-  <si>
-    <t>KTWC 729L</t>
-  </si>
-  <si>
-    <t>KCP 211A</t>
-  </si>
-  <si>
-    <t>KCS 071T</t>
-  </si>
-  <si>
-    <t>KCP 256A</t>
-  </si>
-  <si>
-    <t>KTWC 514D</t>
-  </si>
-  <si>
-    <t>KTWC 133G</t>
-  </si>
-  <si>
-    <t>KTWC 493D</t>
-  </si>
-  <si>
-    <t>KTWC 722L</t>
-  </si>
-  <si>
-    <t>KCS 018U</t>
-  </si>
-  <si>
-    <t>KCR 682Z</t>
-  </si>
-  <si>
-    <t>KTWB 806U</t>
-  </si>
-  <si>
-    <t>KCT 364W</t>
-  </si>
-  <si>
-    <t>KTWB 610Q</t>
-  </si>
-  <si>
-    <t>KTWB 254V</t>
-  </si>
-  <si>
-    <t>KCY 137U</t>
-  </si>
-  <si>
-    <t>KTWB 247V</t>
+    <t>KTWC 509D</t>
+  </si>
+  <si>
+    <t>KCS 082R</t>
+  </si>
+  <si>
+    <t>KTWC 491D</t>
+  </si>
+  <si>
+    <t>KTWB 829U</t>
   </si>
   <si>
     <t>KTWB 826U</t>
@@ -1012,36 +1039,6 @@
     <t>KCR 093X</t>
   </si>
   <si>
-    <t>KTWC 546C</t>
-  </si>
-  <si>
-    <t>KTWC 509D</t>
-  </si>
-  <si>
-    <t>KTWC 495D</t>
-  </si>
-  <si>
-    <t>KCZ 059Y</t>
-  </si>
-  <si>
-    <t>KTWC 596C</t>
-  </si>
-  <si>
-    <t>KCU 264L</t>
-  </si>
-  <si>
-    <t>KCS 082R</t>
-  </si>
-  <si>
-    <t>KTWC 483D</t>
-  </si>
-  <si>
-    <t>KTWC 491D</t>
-  </si>
-  <si>
-    <t>KTWB 829U</t>
-  </si>
-  <si>
     <t>Runda Estate,Ndumberi,Banana,Kihara</t>
   </si>
   <si>
@@ -1057,507 +1054,504 @@
     <t>Kariobangi South,Dandora Estate</t>
   </si>
   <si>
+    <t>Kimende,Limuru,St Pauls University,Ndumberi,Wangige</t>
+  </si>
+  <si>
     <t>Ngumba Estate,Garden Estate</t>
   </si>
   <si>
+    <t>Machakos,Mwala,Mbooni</t>
+  </si>
+  <si>
     <t>Ngara,Parklands Estate</t>
   </si>
   <si>
-    <t>Kimende,Limuru,St Pauls University,Ndumberi,Wangige</t>
-  </si>
-  <si>
-    <t>Machakos,Mwala,Mbooni</t>
-  </si>
-  <si>
     <t>Juja,Jkuat,Makongeni Estate,Kenyatta Road</t>
   </si>
   <si>
+    <t>Nakuru</t>
+  </si>
+  <si>
     <t>Wangige,Kikuyu,Kimende</t>
   </si>
   <si>
+    <t>Komarock,Ngumba Estate,Umoja 3,Kariobangi North</t>
+  </si>
+  <si>
     <t>Wangige,Karai,Kikuyu</t>
   </si>
   <si>
-    <t>Nakuru</t>
+    <t>Nkubu,Tharaka Nithi,Kianjai,Embu,Chuka</t>
+  </si>
+  <si>
+    <t>Kilifi,Mombasa,Kongowea,Kilifi</t>
+  </si>
+  <si>
+    <t>Kitengela Rural,Kitengela 2,Athi River,Kitengela 3,Kitengela 1</t>
+  </si>
+  <si>
+    <t>Cheptiret,Kabarnet</t>
+  </si>
+  <si>
+    <t>Nyali,Kongowea,Mombasa,Miritini</t>
+  </si>
+  <si>
+    <t>Oyugid,Kisii</t>
+  </si>
+  <si>
+    <t>Egerton Njoro,Nakuru,Nyahururu,Bahati</t>
+  </si>
+  <si>
+    <t>Riruta Satelite,Bernard Estate,Langata</t>
+  </si>
+  <si>
+    <t>Bernard Estate,Riruta Satelite,Langata,Kangemi,Kenya,Dagoretti</t>
+  </si>
+  <si>
+    <t>Kangemi,Dagoretti,Riruta Satelite,Kenya</t>
+  </si>
+  <si>
+    <t>Suneka,Kenyanya,Kisii</t>
+  </si>
+  <si>
+    <t>Keroka,Kenyanya,Rongo,Kisii,Emurua Dikirr</t>
+  </si>
+  <si>
+    <t>Dagoretti,Riruta Satelite,Kenya,Langata</t>
+  </si>
+  <si>
+    <t>Kwa Maiko,Githunguri,Ruiru,Ndumberi,Kiambu</t>
+  </si>
+  <si>
+    <t>Komarock,Dandora Estate</t>
+  </si>
+  <si>
+    <t>Kongowea,Miritini,Mombasa</t>
+  </si>
+  <si>
+    <t>Kilifi,Mombasa,Salama,Makueni,Olosinkiran,Nyali,Kalamba,Kajiado,Mariakani,Kongowea</t>
+  </si>
+  <si>
+    <t>Egerton Njoro,Bahati,Nakuru</t>
+  </si>
+  <si>
+    <t>Rongai 3,Rongai 2</t>
+  </si>
+  <si>
+    <t>Parklands Estate,Industrial Area</t>
+  </si>
+  <si>
+    <t>Wangige,Dagoretti,Kinoo</t>
+  </si>
+  <si>
+    <t>Marurui Estate,Bernard Estate,Trm,Riruta Satelite,Langata</t>
+  </si>
+  <si>
+    <t>Kianjai,Ruiri</t>
+  </si>
+  <si>
+    <t>Machakos,Mbooni</t>
+  </si>
+  <si>
+    <t>Imara Daima Estate,Old Mombasa Road,Mlolongo 3,Avenue Park Estate,Mlolongo,Fedha Estate,Airport North Road</t>
+  </si>
+  <si>
+    <t>Dandora Estate</t>
+  </si>
+  <si>
+    <t>Kitengela 1,Kitengela 3,Kitengela 2,Athi River,Mlolongo 2,Mlolongo 3,Mlolongo</t>
+  </si>
+  <si>
+    <t>Kianjai,Nkubu</t>
+  </si>
+  <si>
+    <t>Cheptiret,Burnt Forest</t>
+  </si>
+  <si>
+    <t>Mombasa</t>
+  </si>
+  <si>
+    <t>Bernard Estate,Kangemi</t>
+  </si>
+  <si>
+    <t>Bernard Estate,Garden Estate,Kangemi,Kinoo,Ngumba Estate</t>
+  </si>
+  <si>
+    <t>St Pauls University,Kikuyu</t>
+  </si>
+  <si>
+    <t>Kangemi,Bernard Estate</t>
+  </si>
+  <si>
+    <t>Nguni,Mathunzini,Kitui,Nyaani</t>
+  </si>
+  <si>
+    <t>Muranga,Jkuat</t>
+  </si>
+  <si>
+    <t>Jkuat,Juja</t>
+  </si>
+  <si>
+    <t>Bahati,Nakuru</t>
+  </si>
+  <si>
+    <t>Muranga,Kilima Mbogo,Makuyu</t>
+  </si>
+  <si>
+    <t>Kangemi,Riruta Satelite,Bernard Estate,Kenya</t>
+  </si>
+  <si>
+    <t>Bypass,Membley,Ruiru,Kimbo Murera,Ruiru 2</t>
+  </si>
+  <si>
+    <t>Kahawa Sukari,Kimbo Murera</t>
+  </si>
+  <si>
+    <t>Nyayo Stadium,Makongeni,Nairobi National Park</t>
+  </si>
+  <si>
+    <t>Kerugoya,Kagio</t>
+  </si>
+  <si>
+    <t>Egerton Njoro,Ol Kalou,Subuko</t>
+  </si>
+  <si>
+    <t>Kikuyu,Magadi,St Pauls University,Wangige,Karai</t>
+  </si>
+  <si>
+    <t>Kenyatta Road,Weiteithe Estate,Makongeni Estate</t>
+  </si>
+  <si>
+    <t>Mirogi,Nyangweso,Homabay,Migori</t>
+  </si>
+  <si>
+    <t>Kahawa Sukari,Membley</t>
+  </si>
+  <si>
+    <t>Rongai 1,Rongai 2,Rongai 3</t>
+  </si>
+  <si>
+    <t>Donholm Phase 5 East,Komarock Phase 2,Saika Estate 2,Saika Estate</t>
+  </si>
+  <si>
+    <t>Bunyala,Mumias,Luanda,Kakamega Town,Malava,Yala,Ugunja</t>
+  </si>
+  <si>
+    <t>St Pauls University,Kiambu,Gatundu,Karai,Ruiru,Githunguri</t>
+  </si>
+  <si>
+    <t>Malaba,Bungoma,Port Victoria,Webuye,Busia</t>
+  </si>
+  <si>
+    <t>Mwala,Machakos,Mlolongo,Kalamba,Mbooni,Kituti,Kitui</t>
+  </si>
+  <si>
+    <t>Mlolongo,Imara Daima Estate,Fedha Estate,Old Mombasa Road,Avenue Park Estate,Airport North Road</t>
+  </si>
+  <si>
+    <t>Trm,Clayworks Estate,Kasarani 2,Ngumba Estate,Kasarani Estate 1</t>
+  </si>
+  <si>
+    <t>Kamukuywa,Mois Bridge,Kiminini,Kapenguria,Kitale</t>
+  </si>
+  <si>
+    <t>Langata</t>
   </si>
   <si>
     <t>Runda Estate,Kihara,Banana,Limuru,Kimende</t>
   </si>
   <si>
-    <t>Nkubu,Tharaka Nithi,Kianjai,Embu,Chuka</t>
-  </si>
-  <si>
-    <t>Komarock,Ngumba Estate,Umoja 3,Kariobangi North</t>
-  </si>
-  <si>
-    <t>Kilifi,Mombasa,Kongowea,Kilifi</t>
-  </si>
-  <si>
-    <t>Egerton Njoro,Nakuru,Nyahururu,Bahati</t>
-  </si>
-  <si>
-    <t>Kitengela Rural,Kitengela 2,Athi River,Kitengela 3,Kitengela 1</t>
-  </si>
-  <si>
-    <t>Cheptiret,Kabarnet</t>
-  </si>
-  <si>
-    <t>Oyugid,Kisii</t>
-  </si>
-  <si>
-    <t>Nyali,Kongowea,Mombasa,Miritini</t>
-  </si>
-  <si>
-    <t>Riruta Satelite,Bernard Estate,Langata</t>
-  </si>
-  <si>
-    <t>Kangemi,Dagoretti,Riruta Satelite,Kenya</t>
-  </si>
-  <si>
-    <t>Komarock,Dandora Estate</t>
-  </si>
-  <si>
-    <t>Keroka,Kenyanya,Rongo,Kisii,Emurua Dikirr</t>
-  </si>
-  <si>
-    <t>Dagoretti,Riruta Satelite,Kenya,Langata</t>
-  </si>
-  <si>
-    <t>Kwa Maiko,Githunguri,Ruiru,Ndumberi,Kiambu</t>
-  </si>
-  <si>
-    <t>Kongowea,Miritini,Mombasa</t>
-  </si>
-  <si>
-    <t>Kilifi,Mombasa,Salama,Makueni,Olosinkiran,Nyali,Kalamba,Kajiado,Mariakani,Kongowea</t>
-  </si>
-  <si>
-    <t>Bernard Estate,Riruta Satelite,Langata,Kangemi,Kenya,Dagoretti</t>
-  </si>
-  <si>
-    <t>Marurui Estate,Bernard Estate,Trm,Riruta Satelite,Langata</t>
-  </si>
-  <si>
-    <t>Rongai 3,Rongai 2</t>
-  </si>
-  <si>
-    <t>Parklands Estate,Industrial Area</t>
-  </si>
-  <si>
-    <t>Suneka,Kenyanya,Kisii</t>
-  </si>
-  <si>
-    <t>Wangige,Dagoretti,Kinoo</t>
-  </si>
-  <si>
-    <t>Kianjai,Ruiri</t>
-  </si>
-  <si>
-    <t>Egerton Njoro,Bahati,Nakuru</t>
-  </si>
-  <si>
-    <t>Imara Daima Estate,Old Mombasa Road,Mlolongo 3,Avenue Park Estate,Mlolongo,Fedha Estate,Airport North Road</t>
-  </si>
-  <si>
-    <t>Dandora Estate</t>
-  </si>
-  <si>
-    <t>Machakos,Mbooni</t>
-  </si>
-  <si>
-    <t>St Pauls University,Kiambu,Gatundu,Karai,Ruiru,Githunguri</t>
-  </si>
-  <si>
-    <t>Bernard Estate,Garden Estate,Kangemi,Kinoo,Ngumba Estate</t>
-  </si>
-  <si>
-    <t>Mombasa</t>
-  </si>
-  <si>
-    <t>Bernard Estate,Kangemi</t>
-  </si>
-  <si>
-    <t>Cheptiret,Burnt Forest</t>
-  </si>
-  <si>
-    <t>Trm,Clayworks Estate,Kasarani 2,Ngumba Estate,Kasarani Estate 1</t>
-  </si>
-  <si>
-    <t>Kangemi,Bernard Estate</t>
-  </si>
-  <si>
-    <t>St Pauls University,Kikuyu</t>
-  </si>
-  <si>
-    <t>Nguni,Mathunzini,Kitui,Nyaani</t>
-  </si>
-  <si>
-    <t>Kitengela 1,Kitengela 3,Kitengela 2,Athi River,Mlolongo 2,Mlolongo 3,Mlolongo</t>
+    <t>Luanda,Malava,Bunyala,Ugunja,Yala,Kakamega Town,Mumias</t>
+  </si>
+  <si>
+    <t>Ruiru 2,Ruiru</t>
+  </si>
+  <si>
+    <t>Githurai 45 estate,Upper Githurai 45,Kasarani Estate 1,Trm,Kasarani 2</t>
+  </si>
+  <si>
+    <t>Salama,Machakos,Olosinkiran,Mbooni,Makueni,Mlolongo,Kikima</t>
+  </si>
+  <si>
+    <t>Jkuat,Mathare North Estate</t>
+  </si>
+  <si>
+    <t>Marsabit,Lare,Barsaloi,Barsalinga,Sere Olupi,Maralal,Wamba</t>
+  </si>
+  <si>
+    <t>Chepsonoi,Kisumu Cbd,Milimani Estate,Awasi</t>
+  </si>
+  <si>
+    <t>Kamulu,Tala</t>
+  </si>
+  <si>
+    <t>Fedha Estate,Embakasi Village,Saika Estate</t>
+  </si>
+  <si>
+    <t>Utawala,New Donholm Estate,Fedha Estate,Ofafa Jericho Estate</t>
+  </si>
+  <si>
+    <t>Uhuru Estate,Buruburu,Donholm 2 Estate</t>
+  </si>
+  <si>
+    <t>Rongai 2,Embulbul,Rongai 3,Kiserian,Kiserian 3,Kiserian 2,Rongai 4</t>
+  </si>
+  <si>
+    <t>Komarock Phase 2,Komarock Esatate,Kasarani Estate 1,Komarock</t>
+  </si>
+  <si>
+    <t>Airport North Road,Fedha Estate,Avenue Park Estate,Embakasi Village,Imara Daima Estate,Mlolongo,Old Mombasa Road</t>
+  </si>
+  <si>
+    <t>Awasi,Kisumu Cbd</t>
+  </si>
+  <si>
+    <t>Ngumba Estate,Kenyatta University</t>
+  </si>
+  <si>
+    <t>Trm,Zimmerman Estate,Githurai 44</t>
+  </si>
+  <si>
+    <t>Bungoma,Webuye,Malakisi</t>
+  </si>
+  <si>
+    <t>Kasarani Estate 1,Upper Githurai 45,Kasarani 2,Zimmerman Estate,Trm,Bernard Estate,Githurai 44,Githurai 45 estate</t>
+  </si>
+  <si>
+    <t>Utawala,Eastern Bypass,Kamulu</t>
+  </si>
+  <si>
+    <t>Nyayo Stadium,Ol Orian,Muranga, mukuyu,Industrial Area,Kayole Estate 1,Muranga,Langata,Kayole Estate 2,Ngara,Utawala</t>
+  </si>
+  <si>
+    <t>Bahati,Ol Kalou,Nakuru</t>
+  </si>
+  <si>
+    <t>Lumakanda,Kitale,Kamukuywa,Mois Bridge,Kiminini</t>
+  </si>
+  <si>
+    <t>Imara Daima Estate,Fedha Estate,Airport North Road,Mlolongo,Old Mombasa Road,Avenue Park Estate</t>
+  </si>
+  <si>
+    <t>Makongeni,Mathare North Estate,Uhuru Estate</t>
+  </si>
+  <si>
+    <t>Mlolongo 2,Athi River,Kitengela 3,Kajiado,Kitengela 2,Mlolongo 3,Ol Orian,Kitengela 1</t>
+  </si>
+  <si>
+    <t>Kitengela 1,Kitengela 3,Athi River,Kitengela 2</t>
+  </si>
+  <si>
+    <t>Marurui Estate,Kamiti Rd,Zimmerman Estate,Upper Githurai 45,Trm,Githurai 44</t>
+  </si>
+  <si>
+    <t>Makongeni Estate</t>
+  </si>
+  <si>
+    <t>Saika Estate,Eastern Bypass,Utawala</t>
+  </si>
+  <si>
+    <t>Kabarnet,Tambach,Cheptiret</t>
+  </si>
+  <si>
+    <t>Kapkatet,Londiani,Kericho,Chesirikwa,Kipkellion,Chemilil</t>
+  </si>
+  <si>
+    <t>Landless,Kiganjo</t>
+  </si>
+  <si>
+    <t>Kangari,Aberdare National Park,Karatina,Nyeri</t>
+  </si>
+  <si>
+    <t>Ofafa Jericho Estate</t>
+  </si>
+  <si>
+    <t>Narok</t>
+  </si>
+  <si>
+    <t>Kasarani 2,Kasarani Estate 1,Clayworks Estate,Githurai 44</t>
+  </si>
+  <si>
+    <t>Gatara,Juja,Kenyatta Road</t>
+  </si>
+  <si>
+    <t>Naivasha,Gilgil</t>
+  </si>
+  <si>
+    <t>Utawala,Embakasi Village,Eastern Bypass</t>
+  </si>
+  <si>
+    <t>Tala,Machakos</t>
+  </si>
+  <si>
+    <t>Muranga,Muranga, mukuyu</t>
   </si>
   <si>
     <t>Saika Estate,Donholm Phase 5 East,Komarock Esatate,Kayole Estate 2</t>
   </si>
   <si>
-    <t>Jkuat,Juja</t>
-  </si>
-  <si>
-    <t>Bahati,Nakuru</t>
-  </si>
-  <si>
-    <t>Mirogi,Nyangweso,Homabay,Migori</t>
-  </si>
-  <si>
-    <t>Nyayo Stadium,Makongeni,Nairobi National Park</t>
-  </si>
-  <si>
-    <t>Muranga,Jkuat</t>
-  </si>
-  <si>
-    <t>Bypass,Membley,Ruiru,Kimbo Murera,Ruiru 2</t>
-  </si>
-  <si>
-    <t>Kianjai,Nkubu</t>
-  </si>
-  <si>
-    <t>Rongai 1,Rongai 2,Rongai 3</t>
-  </si>
-  <si>
-    <t>Kahawa Sukari,Kimbo Murera</t>
-  </si>
-  <si>
-    <t>Bunyala,Mumias,Luanda,Kakamega Town,Malava,Yala,Ugunja</t>
-  </si>
-  <si>
-    <t>Utawala,New Donholm Estate,Fedha Estate,Ofafa Jericho Estate</t>
-  </si>
-  <si>
-    <t>Kangemi,Riruta Satelite,Bernard Estate,Kenya</t>
-  </si>
-  <si>
-    <t>Egerton Njoro,Ol Kalou,Subuko</t>
-  </si>
-  <si>
-    <t>Kikuyu,Magadi,St Pauls University,Wangige,Karai</t>
-  </si>
-  <si>
-    <t>Kenyatta Road,Weiteithe Estate,Makongeni Estate</t>
-  </si>
-  <si>
-    <t>Jkuat,Mathare North Estate</t>
-  </si>
-  <si>
-    <t>Kerugoya,Kagio</t>
-  </si>
-  <si>
-    <t>Kahawa Sukari,Membley</t>
-  </si>
-  <si>
-    <t>Ngumba Estate,Kenyatta University</t>
-  </si>
-  <si>
-    <t>Mwala,Machakos,Mlolongo,Kalamba,Mbooni,Kituti,Kitui</t>
+    <t>Komarock Phase 2,Kayole Estate 2,Kayole Estate 1,Saika Estate</t>
+  </si>
+  <si>
+    <t>Kibera,Langata</t>
+  </si>
+  <si>
+    <t>Nyayo Estate</t>
+  </si>
+  <si>
+    <t>Bondo,Emuhaya,Maseno</t>
   </si>
   <si>
     <t>Donholm Phase 5 East,Avenue Park Estate,Komarock,Fedha Estate</t>
   </si>
   <si>
-    <t>Kamukuywa,Mois Bridge,Kiminini,Kapenguria,Kitale</t>
-  </si>
-  <si>
-    <t>Kamulu,Tala</t>
-  </si>
-  <si>
-    <t>Langata</t>
-  </si>
-  <si>
-    <t>Luanda,Malava,Bunyala,Ugunja,Yala,Kakamega Town,Mumias</t>
-  </si>
-  <si>
-    <t>Salama,Machakos,Olosinkiran,Mbooni,Makueni,Mlolongo,Kikima</t>
-  </si>
-  <si>
-    <t>Landless,Kiganjo</t>
-  </si>
-  <si>
-    <t>Marsabit,Lare,Barsaloi,Barsalinga,Sere Olupi,Maralal,Wamba</t>
-  </si>
-  <si>
-    <t>Fedha Estate,Embakasi Village,Saika Estate</t>
-  </si>
-  <si>
-    <t>Malaba,Bungoma,Port Victoria,Webuye,Busia</t>
-  </si>
-  <si>
-    <t>Uhuru Estate,Buruburu,Donholm 2 Estate</t>
-  </si>
-  <si>
-    <t>Lumakanda,Kitale,Kamukuywa,Mois Bridge,Kiminini</t>
-  </si>
-  <si>
-    <t>Makongeni,Mathare North Estate,Uhuru Estate</t>
-  </si>
-  <si>
-    <t>Komarock Phase 2,Komarock Esatate,Kasarani Estate 1,Komarock</t>
-  </si>
-  <si>
-    <t>Bondo,Emuhaya,Maseno</t>
-  </si>
-  <si>
-    <t>Utawala,Eastern Bypass,Kamulu</t>
-  </si>
-  <si>
-    <t>Nyayo Stadium,Ol Orian,Muranga, mukuyu,Industrial Area,Kayole Estate 1,Muranga,Langata,Kayole Estate 2,Ngara,Utawala</t>
-  </si>
-  <si>
-    <t>Bahati,Ol Kalou,Nakuru</t>
+    <t>Ruiru 2</t>
+  </si>
+  <si>
+    <t>Embulbul</t>
+  </si>
+  <si>
+    <t>Trm,Bernard Estate,Dagoretti,Riruta Satelite,Marurui Estate,Clayworks Estate</t>
+  </si>
+  <si>
+    <t>Nyeri</t>
+  </si>
+  <si>
+    <t>Githurai 44,Kamiti Rd,Zimmerman Estate</t>
+  </si>
+  <si>
+    <t>Donholm Phase 5 East</t>
+  </si>
+  <si>
+    <t>Kiserian</t>
+  </si>
+  <si>
+    <t>Ruiru,Ruiru 2</t>
+  </si>
+  <si>
+    <t>Langata,Uhuru Gardens Estate,Kibera</t>
+  </si>
+  <si>
+    <t>Tala,Kamulu,Utawala</t>
+  </si>
+  <si>
+    <t>Malava,Yala,Luanda,Ugunja,Kakamega Town,Mumias,Bunyala</t>
+  </si>
+  <si>
+    <t>Umoja Phase 2,Donholm Phase 5 East</t>
+  </si>
+  <si>
+    <t>Saika Estate 2,Donholm 2 Estate</t>
+  </si>
+  <si>
+    <t>Busia,Siaya,Port Victoria,Malaba</t>
+  </si>
+  <si>
+    <t>Machakos,Ndumberi,Salama,Olosinkiran,Tala</t>
+  </si>
+  <si>
+    <t>Sagana,Kerugoya,Kagio</t>
+  </si>
+  <si>
+    <t>Tena Estate,Greenspan,Buruburu</t>
+  </si>
+  <si>
+    <t>Naivasha,Makuyu</t>
+  </si>
+  <si>
+    <t>Clayworks Estate,Kenyatta University,Kasarani Estate 1,Kasarani 2,Kahawa Sukari,Upper Githurai 45</t>
+  </si>
+  <si>
+    <t>Ruiru,Upper Githurai 45,Githurai 45 estate,Ruiru 2,Bypass</t>
+  </si>
+  <si>
+    <t>Naivasha</t>
+  </si>
+  <si>
+    <t>Kalamba,Olosinkiran,Makueni,Salama,Kajiado</t>
+  </si>
+  <si>
+    <t>Malaba,Port Victoria,Busia</t>
+  </si>
+  <si>
+    <t>Ngara,California</t>
   </si>
   <si>
     <t>Athi River,Kitengela 1,Kitengela 3,Kitengela 2</t>
   </si>
   <si>
-    <t>Rongai 2,Embulbul,Rongai 3,Kiserian,Kiserian 3,Kiserian 2,Rongai 4</t>
-  </si>
-  <si>
-    <t>Makongeni Estate</t>
-  </si>
-  <si>
-    <t>Saika Estate,Eastern Bypass,Utawala</t>
-  </si>
-  <si>
-    <t>Gatara,Juja,Kenyatta Road</t>
-  </si>
-  <si>
-    <t>Kabarnet,Tambach,Cheptiret</t>
-  </si>
-  <si>
-    <t>Narok</t>
-  </si>
-  <si>
-    <t>Saika Estate 2,Donholm 2 Estate</t>
-  </si>
-  <si>
-    <t>Kangari,Aberdare National Park,Karatina,Nyeri</t>
-  </si>
-  <si>
-    <t>Ruiru 2,Ruiru</t>
-  </si>
-  <si>
-    <t>Muranga,Kilima Mbogo,Makuyu</t>
+    <t>Kapsabet,Nandi Hills,Cheptiret</t>
+  </si>
+  <si>
+    <t>Embu</t>
+  </si>
+  <si>
+    <t>Maua</t>
+  </si>
+  <si>
+    <t>Timau,Naro Moru</t>
+  </si>
+  <si>
+    <t>Runda Estate,Kiambu,Banana,Garden Estate,Ruiru,Kimbo Murera,Gatundu,Ndumberi</t>
+  </si>
+  <si>
+    <t>Taita Taveta</t>
+  </si>
+  <si>
+    <t>Kasarani 2,Kasarani Estate 1,Zimmerman Estate</t>
+  </si>
+  <si>
+    <t>Umoja Phase 2,Tena Estate,Komarock Phase 2,Greenspan</t>
+  </si>
+  <si>
+    <t>Masinga,Ngoliba,Kenya,Kilima Mbogo,Weiteithe Estate,Landless</t>
+  </si>
+  <si>
+    <t>Suneka,Kisii,Awendo,Migori</t>
+  </si>
+  <si>
+    <t>Mois Bridge,Kitale</t>
+  </si>
+  <si>
+    <t>Umoja Phase 2,Ofafa Jericho Estate,Buruburu</t>
+  </si>
+  <si>
+    <t>Kibera,Uhuru Gardens Estate</t>
+  </si>
+  <si>
+    <t>Rongai 2,Kiserian 3,Rongai 1,Kiserian,Kiserian 2,Rongai 5,Rongai 4,Embulbul</t>
+  </si>
+  <si>
+    <t>Umoja 3,Kariobangi North</t>
+  </si>
+  <si>
+    <t>Utawala</t>
+  </si>
+  <si>
+    <t>Karatina</t>
+  </si>
+  <si>
+    <t>Tena Estate,New Donholm Estate</t>
   </si>
   <si>
     <t>Upper Githurai 45</t>
   </si>
   <si>
-    <t>Donholm Phase 5 East</t>
-  </si>
-  <si>
-    <t>Kitengela 1,Kitengela 3,Athi River,Kitengela 2</t>
-  </si>
-  <si>
-    <t>Bungoma,Webuye,Malakisi</t>
-  </si>
-  <si>
-    <t>Nyayo Estate</t>
-  </si>
-  <si>
-    <t>Muranga,Muranga, mukuyu</t>
-  </si>
-  <si>
-    <t>Trm,Zimmerman Estate,Githurai 44</t>
-  </si>
-  <si>
-    <t>Kibera,Langata</t>
-  </si>
-  <si>
-    <t>Awasi,Kisumu Cbd</t>
-  </si>
-  <si>
-    <t>Utawala,Embakasi Village,Eastern Bypass</t>
-  </si>
-  <si>
-    <t>Imara Daima Estate,Fedha Estate,Airport North Road,Mlolongo,Old Mombasa Road,Avenue Park Estate</t>
-  </si>
-  <si>
-    <t>Mlolongo,Imara Daima Estate,Fedha Estate,Old Mombasa Road,Avenue Park Estate,Airport North Road</t>
-  </si>
-  <si>
-    <t>Tala,Machakos</t>
-  </si>
-  <si>
-    <t>Naivasha</t>
-  </si>
-  <si>
-    <t>Runda Estate,Kiambu,Banana,Garden Estate,Ruiru,Kimbo Murera,Gatundu,Ndumberi</t>
-  </si>
-  <si>
-    <t>Mlolongo 2,Athi River,Kitengela 3,Kajiado,Kitengela 2,Mlolongo 3,Ol Orian,Kitengela 1</t>
-  </si>
-  <si>
-    <t>Lemek,Morigo,Narok,Ololunga,Bomet</t>
-  </si>
-  <si>
-    <t>Airport North Road,Fedha Estate,Avenue Park Estate,Embakasi Village,Imara Daima Estate,Mlolongo,Old Mombasa Road</t>
-  </si>
-  <si>
-    <t>Ofafa Jericho Estate</t>
-  </si>
-  <si>
-    <t>Tena Estate,Greenspan,Buruburu</t>
-  </si>
-  <si>
-    <t>Trm,Bernard Estate,Dagoretti,Riruta Satelite,Marurui Estate,Clayworks Estate</t>
-  </si>
-  <si>
-    <t>Embulbul</t>
-  </si>
-  <si>
-    <t>Nyeri</t>
-  </si>
-  <si>
-    <t>Ruiru 2</t>
-  </si>
-  <si>
-    <t>Kiserian</t>
-  </si>
-  <si>
-    <t>Ruiru,Ruiru 2</t>
-  </si>
-  <si>
-    <t>Kapkatet,Londiani,Kericho,Chesirikwa,Kipkellion,Chemilil</t>
-  </si>
-  <si>
-    <t>Tala,Kamulu,Utawala</t>
-  </si>
-  <si>
-    <t>Chepsonoi,Kisumu Cbd,Milimani Estate,Awasi</t>
-  </si>
-  <si>
-    <t>Githurai 45 estate,Upper Githurai 45,Kasarani Estate 1,Trm,Kasarani 2</t>
-  </si>
-  <si>
-    <t>Umoja Phase 2,Donholm Phase 5 East</t>
-  </si>
-  <si>
-    <t>Malava,Yala,Luanda,Ugunja,Kakamega Town,Mumias,Bunyala</t>
-  </si>
-  <si>
-    <t>Sagana,Kerugoya,Kagio</t>
-  </si>
-  <si>
-    <t>Machakos,Ndumberi,Salama,Olosinkiran,Tala</t>
-  </si>
-  <si>
-    <t>Naivasha,Makuyu</t>
-  </si>
-  <si>
-    <t>Ngara,California</t>
-  </si>
-  <si>
-    <t>Komarock Phase 2,Kayole Estate 2,Kayole Estate 1,Saika Estate</t>
-  </si>
-  <si>
-    <t>Kapsabet,Nandi Hills,Cheptiret</t>
-  </si>
-  <si>
-    <t>Donholm Phase 5 East,Komarock Phase 2,Saika Estate 2,Saika Estate</t>
-  </si>
-  <si>
-    <t>Clayworks Estate,Kenyatta University,Kasarani Estate 1,Kasarani 2,Kahawa Sukari,Upper Githurai 45</t>
-  </si>
-  <si>
-    <t>Ruiru,Upper Githurai 45,Githurai 45 estate,Ruiru 2,Bypass</t>
-  </si>
-  <si>
-    <t>Kalamba,Olosinkiran,Makueni,Salama,Kajiado</t>
-  </si>
-  <si>
-    <t>Umoja Phase 2,Tena Estate,Komarock Phase 2,Greenspan</t>
-  </si>
-  <si>
-    <t>Masinga,Ngoliba,Kenya,Kilima Mbogo,Weiteithe Estate,Landless</t>
-  </si>
-  <si>
-    <t>Suneka,Kisii,Awendo,Migori</t>
-  </si>
-  <si>
-    <t>Taita Taveta</t>
-  </si>
-  <si>
-    <t>Kasarani 2,Kasarani Estate 1,Zimmerman Estate</t>
-  </si>
-  <si>
-    <t>Utawala</t>
-  </si>
-  <si>
-    <t>Mois Bridge,Kitale</t>
-  </si>
-  <si>
-    <t>Umoja Phase 2,Ofafa Jericho Estate,Buruburu</t>
-  </si>
-  <si>
-    <t>Kibera,Uhuru Gardens Estate</t>
-  </si>
-  <si>
-    <t>Kasarani Estate 1,Upper Githurai 45,Kasarani 2,Zimmerman Estate,Trm,Bernard Estate,Githurai 44,Githurai 45 estate</t>
-  </si>
-  <si>
-    <t>Embu</t>
-  </si>
-  <si>
-    <t>Maua</t>
-  </si>
-  <si>
-    <t>Timau,Naro Moru</t>
-  </si>
-  <si>
-    <t>Malaba,Port Victoria,Busia</t>
-  </si>
-  <si>
-    <t>Kitengela 2,Kitengela 3,Kitengela 1</t>
-  </si>
-  <si>
-    <t>Rongai 2,Kiserian 3,Rongai 1,Kiserian,Kiserian 2,Rongai 5,Rongai 4,Embulbul</t>
-  </si>
-  <si>
-    <t>Karatina</t>
-  </si>
-  <si>
-    <t>Umoja 3,Kariobangi North</t>
+    <t>Mathare North Estate,Uhuru Estate,Donholm 2 Estate</t>
+  </si>
+  <si>
+    <t>Makuyu,Industrial Area,Muranga, mukuyu,Makongeni Estate</t>
+  </si>
+  <si>
+    <t>Kagio</t>
+  </si>
+  <si>
+    <t>Nyahururu</t>
   </si>
   <si>
     <t>Langata,Riruta Satelite</t>
   </si>
   <si>
-    <t>Kasarani 2,Kasarani Estate 1,Clayworks Estate,Githurai 44</t>
-  </si>
-  <si>
-    <t>Mathare North Estate,Uhuru Estate,Donholm 2 Estate</t>
-  </si>
-  <si>
-    <t>Githurai 44,Kamiti Rd,Zimmerman Estate</t>
-  </si>
-  <si>
-    <t>Naivasha,Gilgil</t>
-  </si>
-  <si>
-    <t>Tena Estate,New Donholm Estate</t>
-  </si>
-  <si>
-    <t>Busia,Siaya,Port Victoria,Malaba</t>
-  </si>
-  <si>
-    <t>Makuyu,Industrial Area,Muranga, mukuyu,Makongeni Estate</t>
-  </si>
-  <si>
-    <t>Langata,Uhuru Gardens Estate,Kibera</t>
-  </si>
-  <si>
-    <t>Kagio</t>
-  </si>
-  <si>
-    <t>Nyahururu</t>
-  </si>
-  <si>
     <t>Kitengela 1,Kajiado,Kitengela 3,Kitengela 2</t>
   </si>
   <si>
@@ -1570,15 +1564,15 @@
     <t>Komarock SL</t>
   </si>
   <si>
+    <t>Kikuyu SL</t>
+  </si>
+  <si>
+    <t>Machakos SL</t>
+  </si>
+  <si>
     <t>Nairobi West SL</t>
   </si>
   <si>
-    <t>Kikuyu SL</t>
-  </si>
-  <si>
-    <t>Machakos SL</t>
-  </si>
-  <si>
     <t>Witeithie SL</t>
   </si>
   <si>
@@ -1600,73 +1594,73 @@
     <t>Ruiru SL</t>
   </si>
   <si>
+    <t>Rongai SL</t>
+  </si>
+  <si>
+    <t>Imara Daima SL</t>
+  </si>
+  <si>
     <t>Zimmerman SL</t>
   </si>
   <si>
-    <t>Rongai SL</t>
-  </si>
-  <si>
-    <t>Imara Daima SL</t>
-  </si>
-  <si>
     <t>Meru SL</t>
   </si>
   <si>
+    <t>Kitale SL</t>
+  </si>
+  <si>
     <t>Dandora SL</t>
   </si>
   <si>
-    <t>Kitale SL</t>
-  </si>
-  <si>
     <t>Mwingi SL</t>
   </si>
   <si>
+    <t>Mwea SL</t>
+  </si>
+  <si>
     <t>Kakamega SL</t>
   </si>
   <si>
+    <t>Busia SL</t>
+  </si>
+  <si>
+    <t>Emali SL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Buruburu SL                   </t>
   </si>
   <si>
-    <t>Mwea SL</t>
+    <t>Isiolo SL</t>
+  </si>
+  <si>
+    <t>Kisumu SL</t>
   </si>
   <si>
     <t>RUAI SL</t>
   </si>
   <si>
-    <t>Emali SL</t>
-  </si>
-  <si>
-    <t>Isiolo SL</t>
-  </si>
-  <si>
-    <t>Busia SL</t>
-  </si>
-  <si>
-    <t>Kisumu SL</t>
+    <t>Kericho SL</t>
+  </si>
+  <si>
+    <t>Nyeri SL</t>
+  </si>
+  <si>
+    <t>MUTINDWA SL-Buruburu Area</t>
   </si>
   <si>
     <t>Narok SL</t>
   </si>
   <si>
-    <t>Nyeri SL</t>
-  </si>
-  <si>
     <t>Naivasha SL</t>
   </si>
   <si>
-    <t>MUTINDWA SL-Buruburu Area</t>
-  </si>
-  <si>
-    <t>Kericho SL</t>
+    <t>Bungoma SL</t>
   </si>
   <si>
     <t>Migori SL</t>
   </si>
   <si>
     <t>Nanyuki SL</t>
-  </si>
-  <si>
-    <t>Bungoma SL</t>
   </si>
   <si>
     <t>DSAName</t>
@@ -2058,34 +2052,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1" t="s">
         <v>551</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>552</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>553</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>554</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>555</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>556</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>557</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>558</v>
-      </c>
-      <c r="I1" t="s">
-        <v>559</v>
-      </c>
-      <c r="J1" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2096,25 +2090,25 @@
         <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F2">
-        <v>2105</v>
+        <v>2070</v>
       </c>
       <c r="G2">
         <v>21</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2125,25 +2119,25 @@
         <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F3">
-        <v>1236</v>
+        <v>1189</v>
       </c>
       <c r="G3">
         <v>35</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I3">
-        <v>92</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2154,25 +2148,25 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E4">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F4">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="G4">
         <v>42</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2183,22 +2177,25 @@
         <v>182</v>
       </c>
       <c r="C5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E5">
         <v>64</v>
       </c>
       <c r="F5">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="G5">
         <v>12</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I5">
-        <v>51</v>
+        <v>68</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2209,16 +2206,16 @@
         <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E6">
         <v>58</v>
       </c>
       <c r="F6">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2234,14 +2231,14 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>347</v>
-      </c>
       <c r="E7">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F7">
-        <v>379</v>
+        <v>574</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2252,54 +2249,39 @@
         <v>184</v>
       </c>
       <c r="C8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8">
-        <v>455</v>
+        <v>655</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I8">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>185</v>
-      </c>
       <c r="C9" t="s">
-        <v>349</v>
-      </c>
-      <c r="D9" t="s">
-        <v>519</v>
+        <v>347</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F9">
-        <v>593</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>11</v>
-      </c>
-      <c r="I9">
-        <v>73</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2307,22 +2289,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E10">
         <v>46</v>
       </c>
       <c r="F10">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="G10">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -2336,28 +2318,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11">
-        <v>317</v>
+        <v>402</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I11">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2365,22 +2347,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D12" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="E12">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F12">
-        <v>369</v>
+        <v>290</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2388,28 +2376,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D13" t="s">
-        <v>515</v>
+        <v>351</v>
       </c>
       <c r="E13">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="I13">
-        <v>43</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2417,22 +2399,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D14" t="s">
-        <v>354</v>
+        <v>513</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2440,10 +2428,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D15" t="s">
         <v>515</v>
@@ -2452,10 +2440,16 @@
         <v>39</v>
       </c>
       <c r="F15">
-        <v>392</v>
+        <v>248</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2463,308 +2457,329 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D16" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E16">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16">
-        <v>437</v>
+        <v>328</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I16">
-        <v>105</v>
-      </c>
-      <c r="J16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D17" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E17">
         <v>37</v>
       </c>
       <c r="F17">
-        <v>244</v>
+        <v>426</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I17">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D18" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E18">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="G18">
         <v>255</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s">
-        <v>359</v>
+        <v>357</v>
+      </c>
+      <c r="D19" t="s">
+        <v>521</v>
       </c>
       <c r="E19">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F19">
-        <v>394</v>
+        <v>234</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D20" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E20">
         <v>31</v>
       </c>
       <c r="F20">
-        <v>226</v>
-      </c>
-      <c r="G20">
-        <v>67</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="I20">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D21" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E21">
         <v>31</v>
       </c>
       <c r="F21">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="G21">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C22" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D22" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C23" t="s">
-        <v>363</v>
-      </c>
-      <c r="D23" t="s">
-        <v>522</v>
+        <v>361</v>
       </c>
       <c r="E23">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F23">
-        <v>221</v>
+        <v>387</v>
       </c>
       <c r="G23">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C24" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D24" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E24">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F24">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D25" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="E25">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F25">
-        <v>307</v>
+        <v>376</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C26" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D26" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E26">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F26">
-        <v>226</v>
+        <v>263</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>25</v>
       </c>
+      <c r="B27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" t="s">
+        <v>365</v>
+      </c>
+      <c r="D27" t="s">
+        <v>523</v>
+      </c>
       <c r="E27">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F27">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2772,22 +2787,25 @@
         <v>203</v>
       </c>
       <c r="C28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D28" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2795,10 +2813,10 @@
         <v>204</v>
       </c>
       <c r="C29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D29" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E29">
         <v>23</v>
@@ -2816,7 +2834,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2824,25 +2842,25 @@
         <v>205</v>
       </c>
       <c r="C30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D30" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E30">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F30">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I30">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2850,28 +2868,25 @@
         <v>206</v>
       </c>
       <c r="C31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D31" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="E31">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F31">
-        <v>167</v>
-      </c>
-      <c r="G31">
-        <v>1182</v>
+        <v>194</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2879,28 +2894,28 @@
         <v>207</v>
       </c>
       <c r="C32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D32" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E32">
         <v>20</v>
       </c>
       <c r="F32">
-        <v>297</v>
+        <v>163</v>
       </c>
       <c r="G32">
-        <v>210</v>
+        <v>1182</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2908,28 +2923,28 @@
         <v>208</v>
       </c>
       <c r="C33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D33" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E33">
         <v>19</v>
       </c>
       <c r="F33">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="H33">
         <v>3</v>
       </c>
       <c r="I33">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2937,28 +2952,28 @@
         <v>209</v>
       </c>
       <c r="C34" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D34" t="s">
-        <v>528</v>
+        <v>351</v>
       </c>
       <c r="E34">
         <v>19</v>
       </c>
       <c r="F34">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H34">
         <v>5</v>
       </c>
       <c r="I34">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2966,16 +2981,16 @@
         <v>210</v>
       </c>
       <c r="C35" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D35" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E35">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F35">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H35">
         <v>5</v>
@@ -2984,7 +2999,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2992,10 +3007,10 @@
         <v>211</v>
       </c>
       <c r="C36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D36" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E36">
         <v>18</v>
@@ -3004,7 +3019,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3012,19 +3027,28 @@
         <v>212</v>
       </c>
       <c r="C37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D37" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="E37">
         <v>18</v>
       </c>
       <c r="F37">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3032,28 +3056,28 @@
         <v>213</v>
       </c>
       <c r="C38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D38" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="E38">
         <v>18</v>
       </c>
       <c r="F38">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I38">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3061,28 +3085,28 @@
         <v>214</v>
       </c>
       <c r="C39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D39" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F39">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I39">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3090,28 +3114,28 @@
         <v>215</v>
       </c>
       <c r="C40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D40" t="s">
-        <v>354</v>
+        <v>517</v>
       </c>
       <c r="E40">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F40">
-        <v>141</v>
+        <v>249</v>
       </c>
       <c r="G40">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="H40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3119,25 +3143,25 @@
         <v>216</v>
       </c>
       <c r="C41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D41" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F41">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H41">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I41">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3145,28 +3169,28 @@
         <v>217</v>
       </c>
       <c r="C42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D42" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G42">
         <v>3</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I42">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3174,28 +3198,28 @@
         <v>218</v>
       </c>
       <c r="C43" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D43" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E43">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F43">
-        <v>247</v>
+        <v>104</v>
       </c>
       <c r="G43">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3203,22 +3227,28 @@
         <v>219</v>
       </c>
       <c r="C44" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D44" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E44">
         <v>14</v>
       </c>
       <c r="F44">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G44">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>7</v>
+      </c>
+      <c r="I44">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3226,25 +3256,19 @@
         <v>220</v>
       </c>
       <c r="C45" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D45" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E45">
         <v>14</v>
       </c>
       <c r="F45">
-        <v>97</v>
-      </c>
-      <c r="H45">
-        <v>3</v>
-      </c>
-      <c r="I45">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3252,22 +3276,22 @@
         <v>221</v>
       </c>
       <c r="C46" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D46" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E46">
         <v>14</v>
       </c>
       <c r="F46">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G46">
         <v>406</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3275,10 +3299,10 @@
         <v>222</v>
       </c>
       <c r="C47" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D47" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E47">
         <v>14</v>
@@ -3287,13 +3311,16 @@
         <v>141</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3301,16 +3328,22 @@
         <v>223</v>
       </c>
       <c r="C48" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D48" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F48">
-        <v>100</v>
+        <v>89</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3321,16 +3354,25 @@
         <v>224</v>
       </c>
       <c r="C49" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D49" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E49">
         <v>13</v>
       </c>
       <c r="F49">
-        <v>81</v>
+        <v>206</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3341,25 +3383,25 @@
         <v>225</v>
       </c>
       <c r="C50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D50" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E50">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50">
-        <v>138</v>
-      </c>
-      <c r="G50">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I50">
         <v>50</v>
+      </c>
+      <c r="J50">
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3370,25 +3412,28 @@
         <v>226</v>
       </c>
       <c r="C51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D51" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="E51">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F51">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="G51">
         <v>6</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3399,28 +3444,19 @@
         <v>227</v>
       </c>
       <c r="C52" t="s">
-        <v>391</v>
-      </c>
-      <c r="D52" t="s">
-        <v>534</v>
+        <v>390</v>
       </c>
       <c r="E52">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F52">
-        <v>116</v>
-      </c>
-      <c r="G52">
-        <v>6</v>
+        <v>274</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>33</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3431,22 +3467,19 @@
         <v>228</v>
       </c>
       <c r="C53" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D53" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E53">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F53">
-        <v>82</v>
-      </c>
-      <c r="G53">
+        <v>62</v>
+      </c>
+      <c r="H53">
         <v>5</v>
-      </c>
-      <c r="H53">
-        <v>2</v>
       </c>
       <c r="I53">
         <v>86</v>
@@ -3460,25 +3493,25 @@
         <v>229</v>
       </c>
       <c r="C54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D54" t="s">
-        <v>517</v>
+        <v>351</v>
       </c>
       <c r="E54">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F54">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I54">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3489,22 +3522,22 @@
         <v>230</v>
       </c>
       <c r="C55" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D55" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E55">
         <v>11</v>
       </c>
       <c r="F55">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I55">
-        <v>86</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3515,25 +3548,25 @@
         <v>231</v>
       </c>
       <c r="C56" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D56" t="s">
-        <v>354</v>
+        <v>524</v>
       </c>
       <c r="E56">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F56">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
         <v>3</v>
       </c>
-      <c r="H56">
-        <v>10</v>
-      </c>
       <c r="I56">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3544,7 +3577,7 @@
         <v>232</v>
       </c>
       <c r="C57" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D57" t="s">
         <v>525</v>
@@ -3553,13 +3586,16 @@
         <v>10</v>
       </c>
       <c r="F57">
-        <v>79</v>
+        <v>53</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
       </c>
       <c r="H57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3570,25 +3606,22 @@
         <v>233</v>
       </c>
       <c r="C58" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D58" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58">
-        <v>71</v>
-      </c>
-      <c r="G58">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="H58">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3599,19 +3632,25 @@
         <v>234</v>
       </c>
       <c r="C59" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="D59" t="s">
+        <v>518</v>
       </c>
       <c r="E59">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F59">
-        <v>272</v>
+        <v>68</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I59">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3622,54 +3661,30 @@
         <v>235</v>
       </c>
       <c r="C60" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D60" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="E60">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F60">
-        <v>53</v>
-      </c>
-      <c r="G60">
-        <v>3</v>
-      </c>
-      <c r="H60">
-        <v>2</v>
-      </c>
-      <c r="I60">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
-        <v>236</v>
-      </c>
       <c r="C61" t="s">
-        <v>400</v>
-      </c>
-      <c r="D61" t="s">
-        <v>531</v>
+        <v>399</v>
       </c>
       <c r="E61">
         <v>9</v>
       </c>
       <c r="F61">
-        <v>64</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>6</v>
-      </c>
-      <c r="I61">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3677,28 +3692,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C62" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D62" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="E62">
         <v>9</v>
       </c>
       <c r="F62">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="G62">
-        <v>2</v>
-      </c>
-      <c r="H62">
         <v>10</v>
-      </c>
-      <c r="I62">
-        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3706,25 +3715,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C63" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D63" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="E63">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63">
-        <v>111</v>
+        <v>62</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I63">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3732,91 +3744,103 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D64" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="E64">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="H64">
+        <v>7</v>
+      </c>
+      <c r="I64">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C65" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D65" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="E65">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I65">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C66" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D66" t="s">
         <v>526</v>
       </c>
       <c r="E66">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F66">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="G66">
         <v>2</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I66">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>65</v>
       </c>
+      <c r="B67" t="s">
+        <v>241</v>
+      </c>
       <c r="C67" t="s">
-        <v>406</v>
+        <v>405</v>
+      </c>
+      <c r="D67" t="s">
+        <v>515</v>
       </c>
       <c r="E67">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -3824,22 +3848,19 @@
         <v>242</v>
       </c>
       <c r="C68" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D68" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="E68">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68">
-        <v>125</v>
-      </c>
-      <c r="G68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -3847,28 +3868,28 @@
         <v>243</v>
       </c>
       <c r="C69" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D69" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="E69">
         <v>8</v>
       </c>
       <c r="F69">
-        <v>86</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I69">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J69">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -3876,25 +3897,25 @@
         <v>244</v>
       </c>
       <c r="C70" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D70" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E70">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="H70">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I70">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -3902,19 +3923,28 @@
         <v>245</v>
       </c>
       <c r="C71" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D71" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="E71">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="G71">
+        <v>52</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -3922,25 +3952,25 @@
         <v>246</v>
       </c>
       <c r="C72" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D72" t="s">
         <v>527</v>
       </c>
       <c r="E72">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H72">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I72">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -3948,19 +3978,25 @@
         <v>247</v>
       </c>
       <c r="C73" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D73" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E73">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F73">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="H73">
+        <v>7</v>
+      </c>
+      <c r="I73">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -3968,28 +4004,22 @@
         <v>248</v>
       </c>
       <c r="C74" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D74" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E74">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F74">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="G74">
-        <v>81</v>
-      </c>
-      <c r="H74">
-        <v>4</v>
-      </c>
-      <c r="I74">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -3997,22 +4027,28 @@
         <v>249</v>
       </c>
       <c r="C75" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D75" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E75">
         <v>7</v>
       </c>
       <c r="F75">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G75">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>10</v>
+      </c>
+      <c r="I75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -4020,22 +4056,19 @@
         <v>250</v>
       </c>
       <c r="C76" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D76" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="E76">
         <v>7</v>
       </c>
       <c r="F76">
-        <v>32</v>
-      </c>
-      <c r="G76">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -4043,28 +4076,25 @@
         <v>251</v>
       </c>
       <c r="C77" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D77" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E77">
         <v>7</v>
       </c>
       <c r="F77">
-        <v>50</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="H77">
         <v>4</v>
       </c>
       <c r="I77">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -4072,28 +4102,25 @@
         <v>252</v>
       </c>
       <c r="C78" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D78" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E78">
         <v>7</v>
       </c>
       <c r="F78">
-        <v>40</v>
-      </c>
-      <c r="G78">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="H78">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I78">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -4101,33 +4128,30 @@
         <v>253</v>
       </c>
       <c r="C79" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D79" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="E79">
         <v>7</v>
       </c>
       <c r="F79">
-        <v>40</v>
-      </c>
-      <c r="G79">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I79">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E80">
         <v>7</v>
@@ -4144,10 +4168,10 @@
         <v>254</v>
       </c>
       <c r="C81" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D81" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E81">
         <v>7</v>
@@ -4173,22 +4197,22 @@
         <v>255</v>
       </c>
       <c r="C82" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D82" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="E82">
         <v>7</v>
       </c>
       <c r="F82">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H82">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I82">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -4199,39 +4223,51 @@
         <v>256</v>
       </c>
       <c r="C83" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D83" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E83">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F83">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H83">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I83">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>82</v>
       </c>
+      <c r="B84" t="s">
+        <v>257</v>
+      </c>
       <c r="C84" t="s">
-        <v>422</v>
+        <v>421</v>
+      </c>
+      <c r="D84" t="s">
+        <v>539</v>
       </c>
       <c r="E84">
         <v>6</v>
       </c>
       <c r="F84">
-        <v>63</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84">
+        <v>27</v>
+      </c>
+      <c r="J84">
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4239,68 +4275,68 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C85" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D85" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E85">
         <v>6</v>
       </c>
       <c r="F85">
-        <v>44</v>
-      </c>
-      <c r="G85">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="H85">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I85">
-        <v>47</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
-        <v>258</v>
-      </c>
       <c r="C86" t="s">
-        <v>424</v>
-      </c>
-      <c r="D86" t="s">
-        <v>536</v>
+        <v>423</v>
       </c>
       <c r="E86">
         <v>6</v>
       </c>
       <c r="F86">
-        <v>49</v>
-      </c>
-      <c r="H86">
-        <v>6</v>
-      </c>
-      <c r="I86">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>85</v>
       </c>
+      <c r="B87" t="s">
+        <v>259</v>
+      </c>
       <c r="C87" t="s">
-        <v>425</v>
+        <v>424</v>
+      </c>
+      <c r="D87" t="s">
+        <v>537</v>
       </c>
       <c r="E87">
+        <v>6</v>
+      </c>
+      <c r="F87">
+        <v>44</v>
+      </c>
+      <c r="H87">
         <v>5</v>
       </c>
-      <c r="F87">
-        <v>57</v>
+      <c r="I87">
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -4308,31 +4344,25 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C88" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D88" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E88">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F88">
-        <v>4</v>
-      </c>
-      <c r="G88">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="H88">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I88">
-        <v>83</v>
-      </c>
-      <c r="J88">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -4340,25 +4370,25 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C89" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D89" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="E89">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F89">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
         <v>6</v>
-      </c>
-      <c r="I89">
-        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -4366,19 +4396,25 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C90" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D90" t="s">
-        <v>542</v>
+        <v>515</v>
       </c>
       <c r="E90">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F90">
-        <v>30</v>
+        <v>52</v>
+      </c>
+      <c r="H90">
+        <v>7</v>
+      </c>
+      <c r="I90">
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -4386,25 +4422,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C91" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D91" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="E91">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F91">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="G91">
+        <v>15</v>
       </c>
       <c r="H91">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I91">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -4412,16 +4451,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C92" t="s">
-        <v>430</v>
+        <v>429</v>
+      </c>
+      <c r="D92" t="s">
+        <v>539</v>
       </c>
       <c r="E92">
+        <v>6</v>
+      </c>
+      <c r="F92">
+        <v>41</v>
+      </c>
+      <c r="G92">
+        <v>19</v>
+      </c>
+      <c r="H92">
         <v>5</v>
       </c>
-      <c r="F92">
-        <v>16</v>
+      <c r="I92">
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -4429,19 +4480,25 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C93" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D93" t="s">
-        <v>354</v>
+        <v>525</v>
       </c>
       <c r="E93">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F93">
-        <v>50</v>
+        <v>91</v>
+      </c>
+      <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93">
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -4449,25 +4506,25 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C94" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D94" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="E94">
         <v>5</v>
       </c>
       <c r="F94">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="H94">
         <v>5</v>
       </c>
       <c r="I94">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -4475,25 +4532,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C95" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D95" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="E95">
         <v>5</v>
       </c>
       <c r="F95">
-        <v>9</v>
-      </c>
-      <c r="H95">
-        <v>2</v>
-      </c>
-      <c r="I95">
-        <v>6</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -4501,25 +4552,25 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C96" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D96" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="E96">
         <v>5</v>
       </c>
       <c r="F96">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I96">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -4527,25 +4578,25 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C97" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D97" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E97">
         <v>5</v>
       </c>
       <c r="F97">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H97">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I97">
-        <v>84</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -4553,25 +4604,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C98" t="s">
-        <v>436</v>
-      </c>
-      <c r="D98" t="s">
-        <v>521</v>
+        <v>435</v>
       </c>
       <c r="E98">
         <v>5</v>
       </c>
       <c r="F98">
-        <v>26</v>
-      </c>
-      <c r="H98">
-        <v>10</v>
-      </c>
-      <c r="I98">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -4579,51 +4621,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C99" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D99" t="s">
-        <v>533</v>
+        <v>351</v>
       </c>
       <c r="E99">
         <v>5</v>
       </c>
       <c r="F99">
-        <v>107</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>98</v>
       </c>
-      <c r="B100" t="s">
-        <v>271</v>
-      </c>
       <c r="C100" t="s">
-        <v>438</v>
-      </c>
-      <c r="D100" t="s">
-        <v>543</v>
+        <v>437</v>
       </c>
       <c r="E100">
         <v>5</v>
       </c>
       <c r="F100">
-        <v>31</v>
-      </c>
-      <c r="G100">
-        <v>17</v>
-      </c>
-      <c r="H100">
-        <v>4</v>
-      </c>
-      <c r="I100">
-        <v>30</v>
-      </c>
-      <c r="J100">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -4634,16 +4658,22 @@
         <v>272</v>
       </c>
       <c r="C101" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D101" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="E101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F101">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="H101">
+        <v>6</v>
+      </c>
+      <c r="I101">
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -4654,16 +4684,28 @@
         <v>273</v>
       </c>
       <c r="C102" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D102" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="E102">
+        <v>5</v>
+      </c>
+      <c r="F102">
         <v>4</v>
       </c>
-      <c r="F102">
-        <v>44</v>
+      <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="H102">
+        <v>10</v>
+      </c>
+      <c r="I102">
+        <v>83</v>
+      </c>
+      <c r="J102">
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -4674,22 +4716,22 @@
         <v>274</v>
       </c>
       <c r="C103" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D103" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="E103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F103">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H103">
         <v>3</v>
       </c>
       <c r="I103">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -4700,22 +4742,22 @@
         <v>275</v>
       </c>
       <c r="C104" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D104" t="s">
         <v>521</v>
       </c>
       <c r="E104">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F104">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I104">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -4726,22 +4768,22 @@
         <v>276</v>
       </c>
       <c r="C105" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D105" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="E105">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F105">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4752,33 +4794,48 @@
         <v>277</v>
       </c>
       <c r="C106" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D106" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E106">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F106">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>105</v>
       </c>
+      <c r="B107" t="s">
+        <v>278</v>
+      </c>
+      <c r="C107" t="s">
+        <v>444</v>
+      </c>
+      <c r="D107" t="s">
+        <v>540</v>
+      </c>
       <c r="E107">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F107">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="H107">
+        <v>12</v>
+      </c>
+      <c r="I107">
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -4786,25 +4843,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C108" t="s">
         <v>445</v>
       </c>
       <c r="D108" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="E108">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F108">
-        <v>47</v>
-      </c>
-      <c r="H108">
-        <v>9</v>
-      </c>
-      <c r="I108">
-        <v>37</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -4812,7 +4863,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C109" t="s">
         <v>446</v>
@@ -4821,10 +4872,19 @@
         <v>541</v>
       </c>
       <c r="E109">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F109">
-        <v>113</v>
+        <v>67</v>
+      </c>
+      <c r="G109">
+        <v>2</v>
+      </c>
+      <c r="H109">
+        <v>12</v>
+      </c>
+      <c r="I109">
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -4832,39 +4892,45 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C110" t="s">
         <v>447</v>
       </c>
       <c r="D110" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="E110">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F110">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H110">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I110">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
         <v>109</v>
       </c>
+      <c r="B111" t="s">
+        <v>282</v>
+      </c>
       <c r="C111" t="s">
         <v>448</v>
       </c>
+      <c r="D111" t="s">
+        <v>542</v>
+      </c>
       <c r="E111">
         <v>4</v>
       </c>
       <c r="F111">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -4872,25 +4938,25 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C112" t="s">
         <v>449</v>
       </c>
       <c r="D112" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="E112">
         <v>4</v>
       </c>
       <c r="F112">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="H112">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I112">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -4898,25 +4964,31 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C113" t="s">
         <v>450</v>
       </c>
       <c r="D113" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="E113">
         <v>4</v>
       </c>
       <c r="F113">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="G113">
+        <v>13</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I113">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="J113">
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -4924,28 +4996,25 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C114" t="s">
         <v>451</v>
       </c>
       <c r="D114" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="E114">
         <v>4</v>
       </c>
       <c r="F114">
-        <v>33</v>
-      </c>
-      <c r="G114">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I114">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -4953,25 +5022,25 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C115" t="s">
         <v>452</v>
       </c>
       <c r="D115" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="E115">
         <v>4</v>
       </c>
       <c r="F115">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H115">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I115">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -4979,51 +5048,36 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C116" t="s">
         <v>453</v>
       </c>
       <c r="D116" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="E116">
         <v>4</v>
       </c>
       <c r="F116">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="H116">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I116">
-        <v>40</v>
+        <v>87</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
         <v>115</v>
       </c>
-      <c r="B117" t="s">
-        <v>286</v>
-      </c>
-      <c r="C117" t="s">
-        <v>454</v>
-      </c>
-      <c r="D117" t="s">
-        <v>530</v>
-      </c>
       <c r="E117">
         <v>4</v>
       </c>
       <c r="F117">
-        <v>17</v>
-      </c>
-      <c r="H117">
-        <v>7</v>
-      </c>
-      <c r="I117">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -5031,28 +5085,25 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C118" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D118" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="E118">
         <v>4</v>
       </c>
       <c r="F118">
-        <v>37</v>
-      </c>
-      <c r="G118">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I118">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -5060,54 +5111,42 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C119" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D119" t="s">
-        <v>545</v>
+        <v>517</v>
       </c>
       <c r="E119">
         <v>4</v>
       </c>
       <c r="F119">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G119">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H119">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
         <v>118</v>
       </c>
-      <c r="B120" t="s">
-        <v>289</v>
-      </c>
       <c r="C120" t="s">
-        <v>457</v>
-      </c>
-      <c r="D120" t="s">
-        <v>527</v>
+        <v>456</v>
       </c>
       <c r="E120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F120">
-        <v>20</v>
-      </c>
-      <c r="H120">
-        <v>2</v>
-      </c>
-      <c r="I120">
-        <v>86</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -5118,22 +5157,25 @@
         <v>290</v>
       </c>
       <c r="C121" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D121" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="E121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F121">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I121">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -5144,22 +5186,22 @@
         <v>291</v>
       </c>
       <c r="C122" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D122" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="E122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F122">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="H122">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I122">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -5170,22 +5212,22 @@
         <v>292</v>
       </c>
       <c r="C123" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D123" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="E123">
         <v>3</v>
       </c>
       <c r="F123">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H123">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I123">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -5196,22 +5238,25 @@
         <v>293</v>
       </c>
       <c r="C124" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D124" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E124">
         <v>3</v>
       </c>
       <c r="F124">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="G124">
+        <v>2</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I124">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -5222,25 +5267,22 @@
         <v>294</v>
       </c>
       <c r="C125" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D125" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="E125">
         <v>3</v>
       </c>
       <c r="F125">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>48</v>
-      </c>
-      <c r="J125">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -5251,22 +5293,16 @@
         <v>295</v>
       </c>
       <c r="C126" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D126" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E126">
         <v>3</v>
       </c>
       <c r="F126">
-        <v>15</v>
-      </c>
-      <c r="H126">
-        <v>5</v>
-      </c>
-      <c r="I126">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -5277,22 +5313,16 @@
         <v>296</v>
       </c>
       <c r="C127" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D127" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E127">
         <v>3</v>
       </c>
       <c r="F127">
-        <v>15</v>
-      </c>
-      <c r="H127">
-        <v>9</v>
-      </c>
-      <c r="I127">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -5303,19 +5333,22 @@
         <v>297</v>
       </c>
       <c r="C128" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D128" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="E128">
         <v>3</v>
       </c>
       <c r="F128">
-        <v>11</v>
-      </c>
-      <c r="G128">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H128">
+        <v>9</v>
+      </c>
+      <c r="I128">
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -5326,16 +5359,22 @@
         <v>298</v>
       </c>
       <c r="C129" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D129" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E129">
         <v>3</v>
       </c>
       <c r="F129">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H129">
+        <v>6</v>
+      </c>
+      <c r="I129">
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -5346,22 +5385,19 @@
         <v>299</v>
       </c>
       <c r="C130" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D130" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="E130">
         <v>3</v>
       </c>
       <c r="F130">
-        <v>26</v>
-      </c>
-      <c r="H130">
-        <v>2</v>
-      </c>
-      <c r="I130">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -5372,22 +5408,22 @@
         <v>300</v>
       </c>
       <c r="C131" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D131" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E131">
         <v>3</v>
       </c>
       <c r="F131">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H131">
         <v>5</v>
       </c>
       <c r="I131">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -5398,22 +5434,22 @@
         <v>301</v>
       </c>
       <c r="C132" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D132" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="E132">
         <v>3</v>
       </c>
       <c r="F132">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="H132">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I132">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -5424,22 +5460,22 @@
         <v>302</v>
       </c>
       <c r="C133" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D133" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="E133">
         <v>3</v>
       </c>
       <c r="F133">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H133">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -5450,22 +5486,22 @@
         <v>303</v>
       </c>
       <c r="C134" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D134" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="E134">
         <v>3</v>
       </c>
       <c r="F134">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I134">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -5476,22 +5512,22 @@
         <v>304</v>
       </c>
       <c r="C135" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D135" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="E135">
+        <v>3</v>
+      </c>
+      <c r="F135">
+        <v>16</v>
+      </c>
+      <c r="H135">
         <v>2</v>
       </c>
-      <c r="F135">
-        <v>7</v>
-      </c>
-      <c r="H135">
-        <v>5</v>
-      </c>
       <c r="I135">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -5502,16 +5538,22 @@
         <v>305</v>
       </c>
       <c r="C136" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D136" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F136">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="H136">
+        <v>6</v>
+      </c>
+      <c r="I136">
+        <v>62</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -5522,10 +5564,10 @@
         <v>306</v>
       </c>
       <c r="C137" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D137" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E137">
         <v>2</v>
@@ -5551,30 +5593,42 @@
         <v>307</v>
       </c>
       <c r="C138" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D138" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="E138">
         <v>2</v>
       </c>
       <c r="F138">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
         <v>137</v>
       </c>
+      <c r="B139" t="s">
+        <v>308</v>
+      </c>
       <c r="C139" t="s">
-        <v>476</v>
+        <v>475</v>
+      </c>
+      <c r="D139" t="s">
+        <v>537</v>
       </c>
       <c r="E139">
         <v>2</v>
       </c>
       <c r="F139">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="H139">
+        <v>8</v>
+      </c>
+      <c r="I139">
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -5582,42 +5636,39 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C140" t="s">
-        <v>477</v>
+        <v>476</v>
+      </c>
+      <c r="D140" t="s">
+        <v>546</v>
       </c>
       <c r="E140">
         <v>2</v>
       </c>
       <c r="F140">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="H140">
+        <v>8</v>
+      </c>
+      <c r="I140">
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
         <v>139</v>
       </c>
-      <c r="B141" t="s">
-        <v>309</v>
-      </c>
       <c r="C141" t="s">
-        <v>478</v>
-      </c>
-      <c r="D141" t="s">
-        <v>536</v>
+        <v>477</v>
       </c>
       <c r="E141">
         <v>2</v>
       </c>
       <c r="F141">
-        <v>15</v>
-      </c>
-      <c r="H141">
-        <v>7</v>
-      </c>
-      <c r="I141">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -5628,22 +5679,16 @@
         <v>310</v>
       </c>
       <c r="C142" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D142" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="E142">
         <v>2</v>
       </c>
       <c r="F142">
-        <v>15</v>
-      </c>
-      <c r="H142">
-        <v>13</v>
-      </c>
-      <c r="I142">
-        <v>69</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -5654,36 +5699,39 @@
         <v>311</v>
       </c>
       <c r="C143" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D143" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="E143">
         <v>2</v>
       </c>
       <c r="F143">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="H143">
+        <v>3</v>
+      </c>
+      <c r="I143">
+        <v>50</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" t="s">
         <v>142</v>
       </c>
-      <c r="B144" t="s">
-        <v>312</v>
-      </c>
       <c r="C144" t="s">
-        <v>481</v>
-      </c>
-      <c r="D144" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="E144">
         <v>2</v>
       </c>
       <c r="F144">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5691,10 +5739,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C145" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D145" t="s">
         <v>528</v>
@@ -5711,13 +5759,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C146" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D146" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E146">
         <v>2</v>
@@ -5736,20 +5784,29 @@
       <c r="A147" t="s">
         <v>145</v>
       </c>
+      <c r="B147" t="s">
+        <v>314</v>
+      </c>
       <c r="C147" t="s">
-        <v>484</v>
+        <v>483</v>
+      </c>
+      <c r="D147" t="s">
+        <v>545</v>
       </c>
       <c r="E147">
         <v>2</v>
       </c>
       <c r="F147">
-        <v>186</v>
+        <v>2</v>
+      </c>
+      <c r="G147">
+        <v>20</v>
       </c>
       <c r="H147">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I147">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5757,13 +5814,19 @@
         <v>146</v>
       </c>
       <c r="C148" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F148">
-        <v>12</v>
+        <v>186</v>
+      </c>
+      <c r="H148">
+        <v>6</v>
+      </c>
+      <c r="I148">
+        <v>67</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5774,19 +5837,22 @@
         <v>315</v>
       </c>
       <c r="C149" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="D149" t="s">
+        <v>535</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F149">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H149">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I149">
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5797,22 +5863,22 @@
         <v>316</v>
       </c>
       <c r="C150" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="D150" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F150">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I150">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5823,30 +5889,48 @@
         <v>317</v>
       </c>
       <c r="C151" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D151" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F151">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="H151">
+        <v>7</v>
+      </c>
+      <c r="I151">
+        <v>94</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>150</v>
       </c>
+      <c r="B152" t="s">
+        <v>318</v>
+      </c>
       <c r="C152" t="s">
-        <v>489</v>
+        <v>487</v>
+      </c>
+      <c r="D152" t="s">
+        <v>521</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F152">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="H152">
+        <v>6</v>
+      </c>
+      <c r="I152">
+        <v>42</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5854,25 +5938,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C153" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D153" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F153">
-        <v>5</v>
-      </c>
-      <c r="H153">
-        <v>4</v>
-      </c>
-      <c r="I153">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5880,19 +5958,13 @@
         <v>152</v>
       </c>
       <c r="C154" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E154">
         <v>1</v>
       </c>
       <c r="F154">
-        <v>5</v>
-      </c>
-      <c r="H154">
-        <v>1</v>
-      </c>
-      <c r="I154">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5900,25 +5972,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C155" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D155" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="E155">
         <v>1</v>
       </c>
       <c r="F155">
-        <v>78</v>
-      </c>
-      <c r="H155">
-        <v>6</v>
-      </c>
-      <c r="I155">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5926,25 +5992,25 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C156" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D156" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="E156">
         <v>1</v>
       </c>
       <c r="F156">
+        <v>3</v>
+      </c>
+      <c r="H156">
         <v>5</v>
       </c>
-      <c r="H156">
-        <v>4</v>
-      </c>
       <c r="I156">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5952,85 +6018,73 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C157" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D157" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E157">
         <v>1</v>
       </c>
       <c r="F157">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H157">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I157">
-        <v>38</v>
+        <v>116</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>156</v>
       </c>
+      <c r="B158" t="s">
+        <v>323</v>
+      </c>
       <c r="C158" t="s">
-        <v>495</v>
+        <v>493</v>
+      </c>
+      <c r="D158" t="s">
+        <v>520</v>
       </c>
       <c r="E158">
         <v>1</v>
       </c>
       <c r="F158">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>157</v>
       </c>
-      <c r="B159" t="s">
-        <v>322</v>
-      </c>
       <c r="C159" t="s">
-        <v>496</v>
-      </c>
-      <c r="D159" t="s">
-        <v>531</v>
+        <v>494</v>
       </c>
       <c r="E159">
         <v>1</v>
       </c>
       <c r="F159">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>158</v>
       </c>
-      <c r="B160" t="s">
-        <v>323</v>
-      </c>
       <c r="C160" t="s">
-        <v>497</v>
-      </c>
-      <c r="D160" t="s">
-        <v>544</v>
+        <v>495</v>
       </c>
       <c r="E160">
         <v>1</v>
       </c>
       <c r="F160">
-        <v>1</v>
-      </c>
-      <c r="H160">
-        <v>4</v>
-      </c>
-      <c r="I160">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -6041,22 +6095,19 @@
         <v>324</v>
       </c>
       <c r="C161" t="s">
-        <v>498</v>
-      </c>
-      <c r="D161" t="s">
-        <v>541</v>
+        <v>496</v>
       </c>
       <c r="E161">
         <v>1</v>
       </c>
       <c r="F161">
+        <v>14</v>
+      </c>
+      <c r="H161">
         <v>10</v>
       </c>
-      <c r="H161">
-        <v>8</v>
-      </c>
       <c r="I161">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -6067,42 +6118,42 @@
         <v>325</v>
       </c>
       <c r="C162" t="s">
-        <v>370</v>
+        <v>497</v>
       </c>
       <c r="D162" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="E162">
         <v>1</v>
       </c>
       <c r="F162">
-        <v>330</v>
+        <v>8</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
+        <v>34</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="s">
         <v>161</v>
       </c>
-      <c r="B163" t="s">
-        <v>326</v>
-      </c>
       <c r="C163" t="s">
-        <v>499</v>
-      </c>
-      <c r="D163" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="E163">
         <v>1</v>
       </c>
       <c r="F163">
+        <v>5</v>
+      </c>
+      <c r="H163">
         <v>1</v>
       </c>
-      <c r="H163">
-        <v>5</v>
-      </c>
       <c r="I163">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6110,19 +6161,25 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C164" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D164" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="E164">
         <v>1</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="H164">
+        <v>6</v>
+      </c>
+      <c r="I164">
+        <v>48</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -6130,19 +6187,25 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C165" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D165" t="s">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="E165">
         <v>1</v>
       </c>
       <c r="F165">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="H165">
+        <v>5</v>
+      </c>
+      <c r="I165">
+        <v>50</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -6150,19 +6213,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C166" t="s">
-        <v>502</v>
+        <v>370</v>
       </c>
       <c r="D166" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="E166">
         <v>1</v>
       </c>
       <c r="F166">
-        <v>7</v>
+        <v>330</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6170,10 +6233,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C167" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D167" t="s">
         <v>526</v>
@@ -6182,7 +6245,7 @@
         <v>1</v>
       </c>
       <c r="F167">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -6190,19 +6253,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C168" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
       <c r="D168" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="E168">
         <v>1</v>
       </c>
       <c r="F168">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -6210,25 +6273,25 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C169" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D169" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="E169">
         <v>1</v>
       </c>
       <c r="F169">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H169">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I169">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -6236,30 +6299,45 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C170" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D170" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="E170">
         <v>1</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
         <v>169</v>
       </c>
+      <c r="B171" t="s">
+        <v>333</v>
+      </c>
+      <c r="C171" t="s">
+        <v>505</v>
+      </c>
+      <c r="D171" t="s">
+        <v>543</v>
+      </c>
       <c r="E171">
         <v>1</v>
       </c>
       <c r="F171">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="H171">
+        <v>5</v>
+      </c>
+      <c r="I171">
+        <v>44</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6273,19 +6351,19 @@
         <v>506</v>
       </c>
       <c r="D172" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="E172">
         <v>1</v>
       </c>
       <c r="F172">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H172">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I172">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6299,45 +6377,24 @@
         <v>507</v>
       </c>
       <c r="D173" t="s">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="E173">
         <v>1</v>
       </c>
       <c r="F173">
-        <v>5</v>
-      </c>
-      <c r="H173">
-        <v>8</v>
-      </c>
-      <c r="I173">
-        <v>87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" t="s">
         <v>172</v>
       </c>
-      <c r="B174" t="s">
-        <v>336</v>
-      </c>
-      <c r="C174" t="s">
-        <v>508</v>
-      </c>
-      <c r="D174" t="s">
-        <v>546</v>
-      </c>
       <c r="E174">
         <v>1</v>
       </c>
       <c r="F174">
-        <v>4</v>
-      </c>
-      <c r="H174">
-        <v>5</v>
-      </c>
-      <c r="I174">
-        <v>44</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6345,25 +6402,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C175" t="s">
-        <v>509</v>
-      </c>
-      <c r="D175" t="s">
-        <v>550</v>
+        <v>508</v>
       </c>
       <c r="E175">
         <v>1</v>
       </c>
       <c r="F175">
         <v>7</v>
-      </c>
-      <c r="H175">
-        <v>7</v>
-      </c>
-      <c r="I175">
-        <v>43</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6371,90 +6419,87 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C176" t="s">
-        <v>510</v>
+        <v>509</v>
+      </c>
+      <c r="D176" t="s">
+        <v>533</v>
       </c>
       <c r="E176">
         <v>1</v>
       </c>
       <c r="F176">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C177" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D177" t="s">
-        <v>518</v>
+        <v>351</v>
       </c>
       <c r="E177">
         <v>1</v>
       </c>
       <c r="F177">
-        <v>8</v>
-      </c>
-      <c r="H177">
-        <v>2</v>
-      </c>
-      <c r="I177">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C178" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D178" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E178">
         <v>1</v>
       </c>
       <c r="F178">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C179" t="s">
-        <v>513</v>
+        <v>466</v>
       </c>
       <c r="D179" t="s">
-        <v>354</v>
+        <v>548</v>
       </c>
       <c r="E179">
         <v>1</v>
       </c>
       <c r="F179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>178</v>
       </c>
       <c r="C180" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E180">
         <v>1</v>
